--- a/Supplementary_paper3/Cynipoidea_genomic_assembly_quality2.xlsx
+++ b/Supplementary_paper3/Cynipoidea_genomic_assembly_quality2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bguinet/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9BD53A-0B40-C649-8FF3-CA91521F95FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F10DDAE-2948-CB4D-AB36-B2F150A9F076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="3800" windowWidth="34480" windowHeight="17440" xr2:uid="{311261DB-E187-184B-937E-1A4ED063D7FE}"/>
+    <workbookView xWindow="1360" yWindow="3740" windowWidth="34480" windowHeight="17440" xr2:uid="{311261DB-E187-184B-937E-1A4ED063D7FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="507">
   <si>
     <t>Megahit</t>
   </si>
@@ -57,9 +57,6 @@
     <t>17.4%</t>
   </si>
   <si>
-    <t>Thrichoplasta</t>
-  </si>
-  <si>
     <t>10.4%</t>
   </si>
   <si>
@@ -1500,51 +1497,9 @@
     <t>6.2%</t>
   </si>
   <si>
-    <t xml:space="preserve">assembly </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leptopilina heterotoma lr </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leptopilina boulardi lr </t>
-  </si>
-  <si>
-    <t>95.2%</t>
-  </si>
-  <si>
-    <t>0.4%</t>
-  </si>
-  <si>
-    <t>4.4%</t>
-  </si>
-  <si>
     <t>29.82</t>
   </si>
   <si>
-    <t>28.28</t>
-  </si>
-  <si>
-    <t>91.4%</t>
-  </si>
-  <si>
-    <t>1.7%</t>
-  </si>
-  <si>
-    <t>6.9%</t>
-  </si>
-  <si>
-    <t>27.99</t>
-  </si>
-  <si>
-    <t>0.6%</t>
-  </si>
-  <si>
-    <t>99.2%</t>
-  </si>
-  <si>
-    <t>0.2%</t>
-  </si>
-  <si>
     <t>3a</t>
   </si>
   <si>
@@ -1557,24 +1512,9 @@
     <t>21.6%</t>
   </si>
   <si>
-    <t>99.6%</t>
-  </si>
-  <si>
     <t>32.61</t>
   </si>
   <si>
-    <t>60.46x</t>
-  </si>
-  <si>
-    <t>34.93x</t>
-  </si>
-  <si>
-    <t>11.53x</t>
-  </si>
-  <si>
-    <t>11.06x</t>
-  </si>
-  <si>
     <t>70.8%</t>
   </si>
   <si>
@@ -1603,6 +1543,9 @@
   </si>
   <si>
     <t>32.7x</t>
+  </si>
+  <si>
+    <t>Trichoplasta</t>
   </si>
 </sst>
 </file>
@@ -1840,7 +1783,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1858,15 +1801,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1885,13 +1819,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1910,20 +1839,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2247,10 +2163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28264608-AAD1-E442-A474-207EAD07C638}">
-  <dimension ref="A1:CF173"/>
+  <dimension ref="A1:CF115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="J167" sqref="J167"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="J109" sqref="J109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2275,118 +2191,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="47" t="s">
+      <c r="A1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="37" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="AE1" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF1" s="23" t="s">
-        <v>117</v>
+        <v>51</v>
+      </c>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="AE1" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF1" s="20" t="s">
+        <v>116</v>
       </c>
       <c r="AG1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH1" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="AI1" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH1" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI1" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ1" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK1" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM1" t="s">
         <v>191</v>
       </c>
-      <c r="AJ1" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="AK1" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>192</v>
-      </c>
       <c r="AN1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AR1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS1" s="26" t="s">
-        <v>117</v>
+        <v>81</v>
+      </c>
+      <c r="AS1" s="23" t="s">
+        <v>116</v>
       </c>
       <c r="AT1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AU1" t="s">
         <v>227</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>228</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>229</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>230</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>231</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>232</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>233</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>234</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="BC1" s="26" t="s">
+      <c r="BD1" t="s">
         <v>236</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>237</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>238</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>239</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>240</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>241</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>242</v>
       </c>
-      <c r="BJ1" t="s">
-        <v>243</v>
-      </c>
-      <c r="BQ1" s="18"/>
-      <c r="BR1" s="18"/>
-      <c r="BS1" s="18"/>
-      <c r="BT1" s="18"/>
+      <c r="BQ1" s="15"/>
+      <c r="BR1" s="15"/>
+      <c r="BS1" s="15"/>
+      <c r="BT1" s="15"/>
     </row>
     <row r="2" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -2394,224 +2310,224 @@
       <c r="C2" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D2" s="35" t="s">
-        <v>487</v>
+      <c r="D2" s="29" t="s">
+        <v>486</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="AE2" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF2" s="23" t="s">
-        <v>118</v>
+        <v>62</v>
+      </c>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="AE2" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF2" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="AG2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH2" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI2" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ2" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="AH2" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="AI2" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="AJ2" s="23" t="s">
+      <c r="AK2" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="AK2" s="23" t="s">
-        <v>187</v>
-      </c>
       <c r="AM2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AR2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS2" s="26" t="s">
-        <v>118</v>
+        <v>82</v>
+      </c>
+      <c r="AS2" s="23" t="s">
+        <v>117</v>
       </c>
       <c r="AT2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>228</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>230</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>231</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>232</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>233</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>234</v>
+      </c>
+      <c r="BC2" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="AU2" t="s">
-        <v>228</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>229</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>230</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>231</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>232</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>233</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>234</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>235</v>
-      </c>
-      <c r="BC2" s="26" t="s">
+      <c r="BD2" t="s">
         <v>245</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" t="s">
         <v>246</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BF2" t="s">
         <v>247</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BG2" t="s">
         <v>248</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BH2" t="s">
         <v>249</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BI2" t="s">
         <v>250</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BJ2" t="s">
         <v>251</v>
       </c>
-      <c r="BJ2" t="s">
-        <v>252</v>
-      </c>
-      <c r="BQ2" s="19"/>
-      <c r="BT2" s="31"/>
-      <c r="BU2" s="20"/>
-      <c r="CF2" s="14"/>
+      <c r="BQ2" s="16"/>
+      <c r="BT2" s="26"/>
+      <c r="BU2" s="17"/>
+      <c r="CF2" s="11"/>
     </row>
     <row r="3" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="35" t="s">
-        <v>486</v>
+      <c r="D3" s="29" t="s">
+        <v>485</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="AE3" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF3" s="23" t="s">
-        <v>119</v>
+        <v>61</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="AE3" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF3" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="AG3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH3" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="AI3" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ3" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="AH3" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="AI3" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="AJ3" s="23" t="s">
+      <c r="AK3" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="AK3" s="23" t="s">
-        <v>187</v>
-      </c>
       <c r="AM3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AN3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AR3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS3" s="26" t="s">
-        <v>119</v>
+        <v>83</v>
+      </c>
+      <c r="AS3" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="AT3" t="s">
+        <v>252</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>228</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>230</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>232</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>233</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>234</v>
+      </c>
+      <c r="BC3" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="AU3" t="s">
-        <v>228</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>229</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>230</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>231</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>232</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>233</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>234</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>235</v>
-      </c>
-      <c r="BC3" s="26" t="s">
+      <c r="BD3" t="s">
         <v>254</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BE3" t="s">
         <v>255</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BF3" t="s">
         <v>256</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BG3" t="s">
         <v>257</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BH3" t="s">
         <v>258</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BI3" t="s">
         <v>259</v>
       </c>
-      <c r="BI3" t="s">
+      <c r="BJ3" t="s">
         <v>260</v>
       </c>
-      <c r="BJ3" t="s">
-        <v>261</v>
-      </c>
-      <c r="BQ3" s="19"/>
-      <c r="BT3" s="31"/>
-      <c r="BU3" s="20"/>
-      <c r="CA3" s="21"/>
-      <c r="CF3" s="14"/>
+      <c r="BQ3" s="16"/>
+      <c r="BT3" s="26"/>
+      <c r="BU3" s="17"/>
+      <c r="CA3" s="18"/>
+      <c r="CF3" s="11"/>
     </row>
     <row r="4" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>73</v>
+      <c r="A4" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>6</v>
@@ -2619,411 +2535,411 @@
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="AE4" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF4" s="23" t="s">
-        <v>120</v>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="AE4" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF4" s="20" t="s">
+        <v>119</v>
       </c>
       <c r="AG4" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH4" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI4" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ4" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="AH4" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="AI4" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="AJ4" s="23" t="s">
+      <c r="AK4" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="AK4" s="23" t="s">
-        <v>187</v>
-      </c>
       <c r="AM4" t="s">
-        <v>195</v>
-      </c>
-      <c r="AN4" s="21" t="s">
-        <v>187</v>
+        <v>194</v>
+      </c>
+      <c r="AN4" s="18" t="s">
+        <v>186</v>
       </c>
       <c r="AR4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AS4" s="26" t="s">
-        <v>120</v>
+        <v>84</v>
+      </c>
+      <c r="AS4" s="23" t="s">
+        <v>119</v>
       </c>
       <c r="AT4" t="s">
+        <v>261</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>228</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>230</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>231</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>232</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>233</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>234</v>
+      </c>
+      <c r="BC4" t="s">
         <v>262</v>
       </c>
-      <c r="AU4" t="s">
-        <v>228</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>229</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>230</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>231</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>232</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>233</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>234</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>235</v>
-      </c>
-      <c r="BC4" t="s">
+      <c r="BD4" t="s">
         <v>263</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BE4" t="s">
         <v>264</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BF4" t="s">
         <v>265</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BG4" t="s">
         <v>266</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BH4" t="s">
         <v>267</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BI4" t="s">
         <v>268</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BJ4" t="s">
         <v>269</v>
       </c>
-      <c r="BJ4" t="s">
-        <v>270</v>
-      </c>
-      <c r="BQ4" s="19"/>
-      <c r="BT4" s="31"/>
-      <c r="BU4" s="20"/>
-      <c r="CF4" s="14"/>
+      <c r="BQ4" s="16"/>
+      <c r="BT4" s="26"/>
+      <c r="BU4" s="17"/>
+      <c r="CF4" s="11"/>
     </row>
     <row r="5" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="35" t="s">
-        <v>490</v>
-      </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="AE5" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF5" s="23" t="s">
-        <v>121</v>
+        <v>76</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="29" t="s">
+        <v>489</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="AE5" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF5" s="20" t="s">
+        <v>120</v>
       </c>
       <c r="AG5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH5" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI5" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ5" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="AH5" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI5" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="AJ5" s="23" t="s">
+      <c r="AK5" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="AK5" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="AM5" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN5" s="21" t="s">
-        <v>187</v>
+      <c r="AM5" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="AN5" s="18" t="s">
+        <v>186</v>
       </c>
       <c r="AR5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS5" s="26" t="s">
-        <v>121</v>
+        <v>85</v>
+      </c>
+      <c r="AS5" s="23" t="s">
+        <v>120</v>
       </c>
       <c r="AT5" t="s">
+        <v>270</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>228</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>230</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>231</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>232</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>233</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>234</v>
+      </c>
+      <c r="BC5" t="s">
         <v>271</v>
       </c>
-      <c r="AU5" t="s">
-        <v>228</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>229</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>230</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>231</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>232</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>233</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>234</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>235</v>
-      </c>
-      <c r="BC5" t="s">
+      <c r="BD5" t="s">
         <v>272</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="BE5" t="s">
         <v>273</v>
       </c>
-      <c r="BE5" t="s">
+      <c r="BF5" t="s">
         <v>274</v>
       </c>
-      <c r="BF5" t="s">
+      <c r="BG5" t="s">
         <v>275</v>
       </c>
-      <c r="BG5" t="s">
+      <c r="BH5" t="s">
         <v>276</v>
       </c>
-      <c r="BH5" t="s">
+      <c r="BI5" t="s">
         <v>277</v>
       </c>
-      <c r="BI5" t="s">
+      <c r="BJ5" t="s">
         <v>278</v>
       </c>
-      <c r="BJ5" t="s">
-        <v>279</v>
-      </c>
-      <c r="BQ5" s="19"/>
-      <c r="BT5" s="31"/>
-      <c r="BU5" s="20"/>
-      <c r="CF5" s="14"/>
+      <c r="BQ5" s="16"/>
+      <c r="BT5" s="26"/>
+      <c r="BU5" s="17"/>
+      <c r="CF5" s="11"/>
     </row>
     <row r="6" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="AE6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF6" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH6" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI6" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ6" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK6" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN6" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS6" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>279</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>230</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>231</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>232</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>233</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>234</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>280</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>281</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>282</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>283</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>284</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>285</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>286</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>287</v>
+      </c>
+      <c r="BQ6" s="16"/>
+      <c r="BT6" s="26"/>
+      <c r="BU6" s="17"/>
+      <c r="CF6" s="11"/>
+    </row>
+    <row r="7" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="35" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="30" t="s">
         <v>488</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="AE6" s="23" t="s">
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="AE7" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="AF6" s="23" t="s">
+      <c r="AF7" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AG7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH7" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI7" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ7" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="AH6" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="AI6" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="AJ6" s="23" t="s">
+      <c r="AK7" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="AK6" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="AM6" t="s">
+      <c r="AM7" t="s">
         <v>197</v>
       </c>
-      <c r="AN6" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="AR6" t="s">
+      <c r="AN7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR7" t="s">
         <v>87</v>
       </c>
-      <c r="AS6" s="26" t="s">
+      <c r="AS7" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="AT6" t="s">
-        <v>280</v>
-      </c>
-      <c r="AU6" t="s">
+      <c r="AT7" t="s">
+        <v>288</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV7" t="s">
         <v>228</v>
       </c>
-      <c r="AV6" t="s">
+      <c r="AW7" t="s">
         <v>229</v>
       </c>
-      <c r="AW6" t="s">
+      <c r="AX7" t="s">
         <v>230</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="AY7" t="s">
         <v>231</v>
       </c>
-      <c r="AY6" t="s">
+      <c r="AZ7" t="s">
         <v>232</v>
       </c>
-      <c r="AZ6" t="s">
+      <c r="BA7" t="s">
         <v>233</v>
       </c>
-      <c r="BA6" t="s">
+      <c r="BB7" t="s">
         <v>234</v>
       </c>
-      <c r="BB6" t="s">
-        <v>235</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>281</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>282</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>283</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>284</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>285</v>
-      </c>
-      <c r="BH6" t="s">
-        <v>286</v>
-      </c>
-      <c r="BI6" t="s">
-        <v>287</v>
-      </c>
-      <c r="BJ6" t="s">
-        <v>288</v>
-      </c>
-      <c r="BQ6" s="19"/>
-      <c r="BT6" s="31"/>
-      <c r="BU6" s="20"/>
-      <c r="CF6" s="14"/>
-    </row>
-    <row r="7" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="36" t="s">
-        <v>489</v>
-      </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="AE7" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF7" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH7" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI7" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="AJ7" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="AK7" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>198</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>187</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AS7" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="AT7" t="s">
+      <c r="BC7" t="s">
         <v>289</v>
       </c>
-      <c r="AU7" t="s">
-        <v>228</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>229</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>230</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>231</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>232</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>233</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>234</v>
-      </c>
-      <c r="BB7" t="s">
-        <v>235</v>
-      </c>
-      <c r="BC7" t="s">
+      <c r="BD7" t="s">
         <v>290</v>
       </c>
-      <c r="BD7" t="s">
+      <c r="BE7" t="s">
         <v>291</v>
       </c>
-      <c r="BE7" t="s">
+      <c r="BF7" t="s">
         <v>292</v>
       </c>
-      <c r="BF7" t="s">
+      <c r="BG7" t="s">
         <v>293</v>
       </c>
-      <c r="BG7" t="s">
+      <c r="BH7" t="s">
         <v>294</v>
       </c>
-      <c r="BH7" t="s">
+      <c r="BI7" t="s">
         <v>295</v>
       </c>
-      <c r="BI7" t="s">
+      <c r="BJ7" t="s">
         <v>296</v>
       </c>
-      <c r="BJ7" t="s">
-        <v>297</v>
-      </c>
-      <c r="BQ7" s="19"/>
-      <c r="BT7" s="31"/>
-      <c r="BU7" s="20"/>
-      <c r="CF7" s="14"/>
+      <c r="BQ7" s="16"/>
+      <c r="BT7" s="26"/>
+      <c r="BU7" s="17"/>
+      <c r="CF7" s="11"/>
     </row>
     <row r="8" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>827149</v>
@@ -3031,89 +2947,89 @@
       <c r="C8" s="1">
         <v>614120</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="29">
         <v>126446</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="AE8" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF8" s="23" t="s">
-        <v>124</v>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="AE8" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF8" s="20" t="s">
+        <v>123</v>
       </c>
       <c r="AG8" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH8" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI8" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ8" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="AH8" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="AI8" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="AJ8" s="23" t="s">
+      <c r="AK8" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="AK8" s="23" t="s">
-        <v>187</v>
-      </c>
       <c r="AM8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AN8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AR8" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS8" s="26" t="s">
-        <v>124</v>
+        <v>88</v>
+      </c>
+      <c r="AS8" s="23" t="s">
+        <v>123</v>
       </c>
       <c r="AT8" t="s">
+        <v>297</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>228</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>230</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>231</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>232</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>233</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>234</v>
+      </c>
+      <c r="BC8" t="s">
         <v>298</v>
       </c>
-      <c r="AU8" t="s">
-        <v>228</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>229</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>230</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>231</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>232</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>233</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>234</v>
-      </c>
-      <c r="BB8" t="s">
-        <v>235</v>
-      </c>
-      <c r="BC8" t="s">
+      <c r="BD8" t="s">
         <v>299</v>
       </c>
-      <c r="BD8" t="s">
-        <v>300</v>
-      </c>
-      <c r="BQ8" s="19"/>
-      <c r="BT8" s="31"/>
-      <c r="BU8" s="20"/>
-      <c r="BZ8" s="21"/>
-      <c r="CA8" s="21"/>
-      <c r="CF8" s="14"/>
+      <c r="BQ8" s="16"/>
+      <c r="BT8" s="26"/>
+      <c r="BU8" s="17"/>
+      <c r="BZ8" s="18"/>
+      <c r="CA8" s="18"/>
+      <c r="CF8" s="11"/>
     </row>
     <row r="9" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>79758</v>
@@ -3121,93 +3037,93 @@
       <c r="C9" s="1">
         <v>81548</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="29">
         <v>69238</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="AE9" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF9" s="23" t="s">
-        <v>125</v>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="AE9" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF9" s="20" t="s">
+        <v>124</v>
       </c>
       <c r="AG9" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH9" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI9" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ9" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="AH9" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="AI9" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="AJ9" s="23" t="s">
+      <c r="AK9" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="AK9" s="23" t="s">
-        <v>187</v>
-      </c>
       <c r="AM9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AN9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AR9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AS9" s="27" t="s">
-        <v>125</v>
+        <v>89</v>
+      </c>
+      <c r="AS9" s="24" t="s">
+        <v>124</v>
       </c>
       <c r="AT9" t="s">
+        <v>300</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>228</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>230</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>231</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>232</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>233</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>234</v>
+      </c>
+      <c r="BC9" t="s">
         <v>301</v>
       </c>
-      <c r="AU9" t="s">
-        <v>228</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>229</v>
-      </c>
-      <c r="AW9" t="s">
-        <v>230</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>231</v>
-      </c>
-      <c r="AY9" t="s">
-        <v>232</v>
-      </c>
-      <c r="AZ9" t="s">
-        <v>233</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>234</v>
-      </c>
-      <c r="BB9" t="s">
-        <v>235</v>
-      </c>
-      <c r="BC9" t="s">
+      <c r="BD9" t="s">
         <v>302</v>
       </c>
-      <c r="BD9" t="s">
+      <c r="BE9" t="s">
         <v>303</v>
       </c>
-      <c r="BE9" t="s">
+      <c r="BF9" t="s">
         <v>304</v>
       </c>
-      <c r="BF9" t="s">
-        <v>305</v>
-      </c>
-      <c r="BQ9" s="19"/>
-      <c r="BT9" s="31"/>
-      <c r="BU9" s="20"/>
-      <c r="CF9" s="14"/>
+      <c r="BQ9" s="16"/>
+      <c r="BT9" s="26"/>
+      <c r="BU9" s="17"/>
+      <c r="CF9" s="11"/>
     </row>
     <row r="10" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1">
         <v>19744</v>
@@ -3215,93 +3131,93 @@
       <c r="C10" s="1">
         <v>22023</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="29">
         <v>21875</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="AE10" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF10" s="23" t="s">
-        <v>126</v>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="AE10" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF10" s="20" t="s">
+        <v>125</v>
       </c>
       <c r="AG10" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH10" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="AI10" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ10" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="AH10" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="AI10" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="AJ10" s="23" t="s">
+      <c r="AK10" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="AK10" s="23" t="s">
-        <v>187</v>
-      </c>
       <c r="AM10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AN10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AR10" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS10" s="27" t="s">
-        <v>126</v>
+        <v>90</v>
+      </c>
+      <c r="AS10" s="24" t="s">
+        <v>125</v>
       </c>
       <c r="AT10" t="s">
+        <v>305</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>228</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>230</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>231</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>232</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>233</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>234</v>
+      </c>
+      <c r="BC10" t="s">
         <v>306</v>
       </c>
-      <c r="AU10" t="s">
-        <v>228</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>229</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>230</v>
-      </c>
-      <c r="AX10" t="s">
-        <v>231</v>
-      </c>
-      <c r="AY10" t="s">
-        <v>232</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>233</v>
-      </c>
-      <c r="BA10" t="s">
-        <v>234</v>
-      </c>
-      <c r="BB10" t="s">
-        <v>235</v>
-      </c>
-      <c r="BC10" t="s">
+      <c r="BD10" t="s">
         <v>307</v>
       </c>
-      <c r="BD10" t="s">
+      <c r="BE10" t="s">
         <v>308</v>
       </c>
-      <c r="BE10" t="s">
+      <c r="BF10" t="s">
         <v>309</v>
       </c>
-      <c r="BF10" t="s">
-        <v>310</v>
-      </c>
-      <c r="BQ10" s="19"/>
-      <c r="BT10" s="31"/>
-      <c r="BU10" s="20"/>
-      <c r="CF10" s="14"/>
+      <c r="BQ10" s="16"/>
+      <c r="BT10" s="26"/>
+      <c r="BU10" s="17"/>
+      <c r="CF10" s="11"/>
     </row>
     <row r="11" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>6752</v>
@@ -3309,93 +3225,93 @@
       <c r="C11" s="1">
         <v>9788</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="29">
         <v>9777</v>
       </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="AE11" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF11" s="23" t="s">
-        <v>127</v>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="AE11" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF11" s="20" t="s">
+        <v>126</v>
       </c>
       <c r="AG11" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH11" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="AI11" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="AJ11" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="AK11" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH11" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI11" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ11" s="20" t="s">
         <v>187</v>
       </c>
+      <c r="AK11" s="20" t="s">
+        <v>186</v>
+      </c>
       <c r="AM11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AN11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AR11" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS11" s="26" t="s">
-        <v>127</v>
+        <v>91</v>
+      </c>
+      <c r="AS11" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="AT11" t="s">
+        <v>310</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>228</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>230</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>231</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>232</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>233</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>234</v>
+      </c>
+      <c r="BC11" t="s">
         <v>311</v>
       </c>
-      <c r="AU11" t="s">
-        <v>228</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>229</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>230</v>
-      </c>
-      <c r="AX11" t="s">
-        <v>231</v>
-      </c>
-      <c r="AY11" t="s">
-        <v>232</v>
-      </c>
-      <c r="AZ11" t="s">
-        <v>233</v>
-      </c>
-      <c r="BA11" t="s">
-        <v>234</v>
-      </c>
-      <c r="BB11" t="s">
-        <v>235</v>
-      </c>
-      <c r="BC11" t="s">
+      <c r="BD11" t="s">
         <v>312</v>
       </c>
-      <c r="BD11" t="s">
+      <c r="BE11" t="s">
         <v>313</v>
       </c>
-      <c r="BE11" t="s">
+      <c r="BF11" t="s">
         <v>314</v>
       </c>
-      <c r="BF11" t="s">
-        <v>315</v>
-      </c>
-      <c r="BQ11" s="19"/>
-      <c r="BT11" s="31"/>
-      <c r="BU11" s="22"/>
-      <c r="CF11" s="14"/>
+      <c r="BQ11" s="16"/>
+      <c r="BT11" s="26"/>
+      <c r="BU11" s="19"/>
+      <c r="CF11" s="11"/>
     </row>
     <row r="12" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1">
         <v>980</v>
@@ -3403,95 +3319,95 @@
       <c r="C12" s="1">
         <v>2166</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="29">
         <v>2172</v>
       </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="AE12" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF12" s="23" t="s">
-        <v>128</v>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="AE12" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF12" s="20" t="s">
+        <v>127</v>
       </c>
       <c r="AG12" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH12" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI12" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ12" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="AH12" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI12" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="AJ12" s="23" t="s">
+      <c r="AK12" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="AK12" s="23" t="s">
-        <v>187</v>
-      </c>
       <c r="AM12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AR12" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS12" s="26" t="s">
-        <v>128</v>
+        <v>92</v>
+      </c>
+      <c r="AS12" s="23" t="s">
+        <v>127</v>
       </c>
       <c r="AT12" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>228</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>230</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>231</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>232</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>233</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>234</v>
+      </c>
+      <c r="BC12" t="s">
         <v>316</v>
       </c>
-      <c r="AU12" t="s">
-        <v>228</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>229</v>
-      </c>
-      <c r="AW12" t="s">
-        <v>230</v>
-      </c>
-      <c r="AX12" t="s">
-        <v>231</v>
-      </c>
-      <c r="AY12" t="s">
-        <v>232</v>
-      </c>
-      <c r="AZ12" t="s">
-        <v>233</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>234</v>
-      </c>
-      <c r="BB12" t="s">
-        <v>235</v>
-      </c>
-      <c r="BC12" t="s">
+      <c r="BD12" t="s">
         <v>317</v>
       </c>
-      <c r="BD12" t="s">
+      <c r="BE12" t="s">
         <v>318</v>
       </c>
-      <c r="BE12" t="s">
+      <c r="BF12" t="s">
         <v>319</v>
       </c>
-      <c r="BF12" t="s">
-        <v>320</v>
-      </c>
-      <c r="BQ12" s="19"/>
-      <c r="BT12" s="31"/>
-      <c r="BU12" s="22"/>
-      <c r="BZ12" s="21"/>
-      <c r="CA12" s="21"/>
-      <c r="CF12" s="14"/>
+      <c r="BQ12" s="16"/>
+      <c r="BT12" s="26"/>
+      <c r="BU12" s="19"/>
+      <c r="BZ12" s="18"/>
+      <c r="CA12" s="18"/>
+      <c r="CF12" s="11"/>
     </row>
     <row r="13" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1">
         <v>112</v>
@@ -3499,93 +3415,93 @@
       <c r="C13" s="1">
         <v>507</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="29">
         <v>509</v>
       </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="AE13" s="23" t="s">
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="AE13" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF13" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH13" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI13" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ13" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK13" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>203</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR13" t="s">
         <v>94</v>
       </c>
-      <c r="AF13" s="23" t="s">
+      <c r="AS13" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="AG13" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH13" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="AI13" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="AJ13" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="AK13" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>204</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>187</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>95</v>
-      </c>
-      <c r="AS13" s="26" t="s">
-        <v>130</v>
-      </c>
       <c r="AT13" t="s">
+        <v>320</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>228</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>230</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>231</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>232</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>233</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>234</v>
+      </c>
+      <c r="BC13" t="s">
         <v>321</v>
       </c>
-      <c r="AU13" t="s">
-        <v>228</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>229</v>
-      </c>
-      <c r="AW13" t="s">
-        <v>230</v>
-      </c>
-      <c r="AX13" t="s">
-        <v>231</v>
-      </c>
-      <c r="AY13" t="s">
-        <v>232</v>
-      </c>
-      <c r="AZ13" t="s">
-        <v>233</v>
-      </c>
-      <c r="BA13" t="s">
-        <v>234</v>
-      </c>
-      <c r="BB13" t="s">
-        <v>235</v>
-      </c>
-      <c r="BC13" t="s">
+      <c r="BD13" t="s">
         <v>322</v>
       </c>
-      <c r="BD13" t="s">
+      <c r="BE13" t="s">
         <v>323</v>
       </c>
-      <c r="BE13" t="s">
+      <c r="BF13" t="s">
         <v>324</v>
       </c>
-      <c r="BF13" t="s">
-        <v>325</v>
-      </c>
-      <c r="BQ13" s="19"/>
-      <c r="BT13" s="31"/>
-      <c r="BU13" s="22"/>
-      <c r="CA13" s="21"/>
-      <c r="CF13" s="14"/>
+      <c r="BQ13" s="16"/>
+      <c r="BT13" s="26"/>
+      <c r="BU13" s="19"/>
+      <c r="CA13" s="18"/>
+      <c r="CF13" s="11"/>
     </row>
     <row r="14" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>585245289</v>
@@ -3593,93 +3509,93 @@
       <c r="C14" s="1">
         <v>589929523</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="29">
         <v>430577537</v>
       </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="AE14" s="23" t="s">
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="AE14" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF14" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH14" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI14" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ14" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK14" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>204</v>
+      </c>
+      <c r="AN14" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR14" t="s">
         <v>95</v>
       </c>
-      <c r="AF14" s="23" t="s">
+      <c r="AS14" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="AG14" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH14" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="AI14" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="AJ14" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="AK14" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>205</v>
-      </c>
-      <c r="AN14" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>96</v>
-      </c>
-      <c r="AS14" s="26" t="s">
-        <v>131</v>
-      </c>
       <c r="AT14" t="s">
+        <v>325</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>228</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>230</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>231</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>232</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>233</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>234</v>
+      </c>
+      <c r="BC14" t="s">
         <v>326</v>
       </c>
-      <c r="AU14" t="s">
-        <v>228</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>229</v>
-      </c>
-      <c r="AW14" t="s">
-        <v>230</v>
-      </c>
-      <c r="AX14" t="s">
-        <v>231</v>
-      </c>
-      <c r="AY14" t="s">
-        <v>232</v>
-      </c>
-      <c r="AZ14" t="s">
-        <v>233</v>
-      </c>
-      <c r="BA14" t="s">
-        <v>234</v>
-      </c>
-      <c r="BB14" t="s">
-        <v>235</v>
-      </c>
-      <c r="BC14" t="s">
+      <c r="BD14" t="s">
         <v>327</v>
       </c>
-      <c r="BD14" t="s">
+      <c r="BE14" t="s">
         <v>328</v>
       </c>
-      <c r="BE14" t="s">
+      <c r="BF14" t="s">
         <v>329</v>
       </c>
-      <c r="BF14" t="s">
-        <v>330</v>
-      </c>
-      <c r="BQ14" s="19"/>
-      <c r="BT14" s="31"/>
-      <c r="BU14" s="22"/>
-      <c r="CA14" s="21"/>
-      <c r="CF14" s="14"/>
+      <c r="BQ14" s="16"/>
+      <c r="BT14" s="26"/>
+      <c r="BU14" s="19"/>
+      <c r="CA14" s="18"/>
+      <c r="CF14" s="11"/>
     </row>
     <row r="15" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1">
         <v>343475569</v>
@@ -3687,94 +3603,94 @@
       <c r="C15" s="1">
         <v>422061759</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="29">
         <v>402488421</v>
       </c>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="AE15" s="23" t="s">
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="AE15" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF15" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH15" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI15" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ15" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK15" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM15" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="AN15" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR15" t="s">
         <v>96</v>
       </c>
-      <c r="AF15" s="23" t="s">
+      <c r="AS15" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="AG15" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH15" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="AI15" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="AJ15" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="AK15" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="AM15" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="AN15" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>97</v>
-      </c>
-      <c r="AS15" s="26" t="s">
-        <v>132</v>
-      </c>
       <c r="AT15" t="s">
+        <v>330</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>228</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>230</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>231</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>232</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>233</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>234</v>
+      </c>
+      <c r="BC15" t="s">
         <v>331</v>
       </c>
-      <c r="AU15" t="s">
-        <v>228</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>229</v>
-      </c>
-      <c r="AW15" t="s">
-        <v>230</v>
-      </c>
-      <c r="AX15" t="s">
-        <v>231</v>
-      </c>
-      <c r="AY15" t="s">
-        <v>232</v>
-      </c>
-      <c r="AZ15" t="s">
-        <v>233</v>
-      </c>
-      <c r="BA15" t="s">
-        <v>234</v>
-      </c>
-      <c r="BB15" t="s">
-        <v>235</v>
-      </c>
-      <c r="BC15" t="s">
+      <c r="BD15" t="s">
         <v>332</v>
       </c>
-      <c r="BD15" t="s">
+      <c r="BE15" t="s">
         <v>333</v>
       </c>
-      <c r="BE15" t="s">
+      <c r="BF15" t="s">
         <v>334</v>
       </c>
-      <c r="BF15" t="s">
-        <v>335</v>
-      </c>
-      <c r="BQ15" s="19"/>
-      <c r="BT15" s="31"/>
-      <c r="BU15" s="22"/>
-      <c r="BZ15" s="21"/>
-      <c r="CA15" s="21"/>
-      <c r="CF15" s="14"/>
+      <c r="BQ15" s="16"/>
+      <c r="BT15" s="26"/>
+      <c r="BU15" s="19"/>
+      <c r="BZ15" s="18"/>
+      <c r="CA15" s="18"/>
+      <c r="CF15" s="11"/>
     </row>
     <row r="16" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1">
         <v>209424943</v>
@@ -3782,105 +3698,105 @@
       <c r="C16" s="1">
         <v>293847064</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="29">
         <v>292750284</v>
       </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="AE16" s="23" t="s">
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="AE16" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF16" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH16" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="AI16" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ16" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK16" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>206</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR16" t="s">
         <v>97</v>
       </c>
-      <c r="AF16" s="23" t="s">
+      <c r="AS16" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="AG16" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH16" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="AI16" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="AJ16" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="AK16" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>207</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>187</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>98</v>
-      </c>
-      <c r="AS16" s="26" t="s">
-        <v>133</v>
-      </c>
       <c r="AT16" t="s">
+        <v>335</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>228</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>230</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>231</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>232</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>233</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>234</v>
+      </c>
+      <c r="BC16" t="s">
         <v>336</v>
       </c>
-      <c r="AU16" t="s">
-        <v>228</v>
-      </c>
-      <c r="AV16" t="s">
-        <v>229</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>230</v>
-      </c>
-      <c r="AX16" t="s">
-        <v>231</v>
-      </c>
-      <c r="AY16" t="s">
-        <v>232</v>
-      </c>
-      <c r="AZ16" t="s">
-        <v>233</v>
-      </c>
-      <c r="BA16" t="s">
-        <v>234</v>
-      </c>
-      <c r="BB16" t="s">
-        <v>235</v>
-      </c>
-      <c r="BC16" t="s">
+      <c r="BD16" t="s">
         <v>337</v>
       </c>
-      <c r="BD16" t="s">
+      <c r="BE16" t="s">
         <v>338</v>
       </c>
-      <c r="BE16" t="s">
+      <c r="BF16" t="s">
         <v>339</v>
       </c>
-      <c r="BF16" t="s">
+      <c r="BG16" t="s">
         <v>340</v>
       </c>
-      <c r="BG16" t="s">
+      <c r="BH16" t="s">
         <v>341</v>
       </c>
-      <c r="BH16" t="s">
+      <c r="BI16" t="s">
         <v>342</v>
       </c>
-      <c r="BI16" t="s">
+      <c r="BJ16" t="s">
         <v>343</v>
       </c>
-      <c r="BJ16" t="s">
-        <v>344</v>
-      </c>
-      <c r="BQ16" s="19"/>
-      <c r="BT16" s="31"/>
-      <c r="BU16" s="22"/>
-      <c r="CA16" s="21"/>
-      <c r="CF16" s="14"/>
+      <c r="BQ16" s="16"/>
+      <c r="BT16" s="26"/>
+      <c r="BU16" s="19"/>
+      <c r="CA16" s="18"/>
+      <c r="CF16" s="11"/>
     </row>
     <row r="17" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1">
         <v>119639738</v>
@@ -3888,104 +3804,104 @@
       <c r="C17" s="1">
         <v>207866598</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="29">
         <v>207689941</v>
       </c>
-      <c r="J17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="AE17" s="23" t="s">
+      <c r="J17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="AE17" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF17" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH17" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI17" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ17" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK17" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM17" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="AN17" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR17" t="s">
         <v>98</v>
       </c>
-      <c r="AF17" s="23" t="s">
+      <c r="AS17" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="AG17" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH17" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="AI17" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="AJ17" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="AK17" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="AM17" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="AN17" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>99</v>
-      </c>
-      <c r="AS17" s="26" t="s">
-        <v>134</v>
-      </c>
       <c r="AT17" t="s">
+        <v>344</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>228</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>230</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>231</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>232</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>233</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>234</v>
+      </c>
+      <c r="BC17" t="s">
         <v>345</v>
       </c>
-      <c r="AU17" t="s">
-        <v>228</v>
-      </c>
-      <c r="AV17" t="s">
-        <v>229</v>
-      </c>
-      <c r="AW17" t="s">
-        <v>230</v>
-      </c>
-      <c r="AX17" t="s">
-        <v>231</v>
-      </c>
-      <c r="AY17" t="s">
-        <v>232</v>
-      </c>
-      <c r="AZ17" t="s">
-        <v>233</v>
-      </c>
-      <c r="BA17" t="s">
-        <v>234</v>
-      </c>
-      <c r="BB17" t="s">
-        <v>235</v>
-      </c>
-      <c r="BC17" t="s">
+      <c r="BD17" t="s">
         <v>346</v>
       </c>
-      <c r="BD17" t="s">
+      <c r="BE17" t="s">
         <v>347</v>
       </c>
-      <c r="BE17" t="s">
+      <c r="BF17" t="s">
         <v>348</v>
       </c>
-      <c r="BF17" t="s">
+      <c r="BG17" t="s">
         <v>349</v>
       </c>
-      <c r="BG17" t="s">
+      <c r="BH17" t="s">
         <v>350</v>
       </c>
-      <c r="BH17" t="s">
+      <c r="BI17" t="s">
         <v>351</v>
       </c>
-      <c r="BI17" t="s">
+      <c r="BJ17" t="s">
         <v>352</v>
       </c>
-      <c r="BJ17" t="s">
-        <v>353</v>
-      </c>
-      <c r="BQ17" s="19"/>
-      <c r="BT17" s="31"/>
-      <c r="BU17" s="22"/>
-      <c r="CF17" s="14"/>
+      <c r="BQ17" s="16"/>
+      <c r="BT17" s="26"/>
+      <c r="BU17" s="19"/>
+      <c r="CF17" s="11"/>
     </row>
     <row r="18" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1">
         <v>36133742</v>
@@ -3993,100 +3909,100 @@
       <c r="C18" s="1">
         <v>93170968</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="29">
         <v>93361186</v>
       </c>
-      <c r="J18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="AE18" s="23" t="s">
+      <c r="J18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="AE18" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF18" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH18" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="AI18" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ18" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK18" s="20"/>
+      <c r="AM18" t="s">
+        <v>208</v>
+      </c>
+      <c r="AR18" t="s">
         <v>99</v>
       </c>
-      <c r="AF18" s="23" t="s">
+      <c r="AS18" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="AG18" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH18" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="AI18" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="AJ18" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="AK18" s="23"/>
-      <c r="AM18" t="s">
-        <v>209</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>100</v>
-      </c>
-      <c r="AS18" s="26" t="s">
-        <v>135</v>
-      </c>
       <c r="AT18" t="s">
+        <v>353</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>228</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>230</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>231</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>232</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>233</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>234</v>
+      </c>
+      <c r="BC18" t="s">
         <v>354</v>
       </c>
-      <c r="AU18" t="s">
-        <v>228</v>
-      </c>
-      <c r="AV18" t="s">
-        <v>229</v>
-      </c>
-      <c r="AW18" t="s">
-        <v>230</v>
-      </c>
-      <c r="AX18" t="s">
-        <v>231</v>
-      </c>
-      <c r="AY18" t="s">
-        <v>232</v>
-      </c>
-      <c r="AZ18" t="s">
-        <v>233</v>
-      </c>
-      <c r="BA18" t="s">
-        <v>234</v>
-      </c>
-      <c r="BB18" t="s">
-        <v>235</v>
-      </c>
-      <c r="BC18" t="s">
+      <c r="BD18" t="s">
         <v>355</v>
       </c>
-      <c r="BD18" t="s">
+      <c r="BE18" t="s">
         <v>356</v>
       </c>
-      <c r="BE18" t="s">
+      <c r="BF18" t="s">
         <v>357</v>
       </c>
-      <c r="BF18" t="s">
+      <c r="BG18" t="s">
         <v>358</v>
       </c>
-      <c r="BG18" t="s">
+      <c r="BH18" t="s">
         <v>359</v>
       </c>
-      <c r="BH18" t="s">
+      <c r="BI18" t="s">
         <v>360</v>
       </c>
-      <c r="BI18" t="s">
+      <c r="BJ18" t="s">
         <v>361</v>
       </c>
-      <c r="BJ18" t="s">
-        <v>362</v>
-      </c>
-      <c r="BQ18" s="19"/>
-      <c r="BT18" s="31"/>
-      <c r="BU18" s="22"/>
-      <c r="CA18" s="21"/>
-      <c r="CF18" s="14"/>
+      <c r="BQ18" s="16"/>
+      <c r="BT18" s="26"/>
+      <c r="BU18" s="19"/>
+      <c r="CA18" s="18"/>
+      <c r="CF18" s="11"/>
     </row>
     <row r="19" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1">
         <v>7600771</v>
@@ -4094,104 +4010,104 @@
       <c r="C19" s="1">
         <v>37260573</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="29">
         <v>37385368</v>
       </c>
-      <c r="J19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="AE19" s="23" t="s">
+      <c r="J19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="AE19" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF19" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH19" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="AI19" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ19" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK19" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN19" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR19" t="s">
         <v>100</v>
       </c>
-      <c r="AF19" s="23" t="s">
+      <c r="AS19" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AG19" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH19" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="AI19" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="AJ19" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="AK19" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>210</v>
-      </c>
-      <c r="AN19" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>101</v>
-      </c>
-      <c r="AS19" s="26" t="s">
-        <v>136</v>
-      </c>
       <c r="AT19" t="s">
+        <v>362</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>228</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>230</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>231</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>232</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>233</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>234</v>
+      </c>
+      <c r="BC19" t="s">
         <v>363</v>
       </c>
-      <c r="AU19" t="s">
-        <v>228</v>
-      </c>
-      <c r="AV19" t="s">
-        <v>229</v>
-      </c>
-      <c r="AW19" t="s">
-        <v>230</v>
-      </c>
-      <c r="AX19" t="s">
-        <v>231</v>
-      </c>
-      <c r="AY19" t="s">
-        <v>232</v>
-      </c>
-      <c r="AZ19" t="s">
-        <v>233</v>
-      </c>
-      <c r="BA19" t="s">
-        <v>234</v>
-      </c>
-      <c r="BB19" t="s">
-        <v>235</v>
-      </c>
-      <c r="BC19" t="s">
+      <c r="BD19" t="s">
         <v>364</v>
       </c>
-      <c r="BD19" t="s">
+      <c r="BE19" t="s">
         <v>365</v>
       </c>
-      <c r="BE19" t="s">
+      <c r="BF19" t="s">
         <v>366</v>
       </c>
-      <c r="BF19" t="s">
+      <c r="BG19" t="s">
         <v>367</v>
       </c>
-      <c r="BG19" t="s">
+      <c r="BH19" t="s">
         <v>368</v>
       </c>
-      <c r="BH19" t="s">
+      <c r="BI19" t="s">
         <v>369</v>
       </c>
-      <c r="BI19" t="s">
+      <c r="BJ19" t="s">
         <v>370</v>
       </c>
-      <c r="BJ19" t="s">
-        <v>371</v>
-      </c>
-      <c r="BQ19" s="19"/>
-      <c r="BT19" s="31"/>
-      <c r="BU19" s="22"/>
-      <c r="CF19" s="14"/>
+      <c r="BQ19" s="16"/>
+      <c r="BT19" s="26"/>
+      <c r="BU19" s="19"/>
+      <c r="CF19" s="11"/>
     </row>
     <row r="20" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1">
         <v>147019</v>
@@ -4199,106 +4115,106 @@
       <c r="C20" s="1">
         <v>132460</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="29">
         <v>92476</v>
       </c>
-      <c r="J20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="AE20" s="23" t="s">
+      <c r="J20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="AE20" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF20" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH20" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI20" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ20" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK20" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR20" t="s">
         <v>101</v>
       </c>
-      <c r="AF20" s="23" t="s">
+      <c r="AS20" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="AG20" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH20" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="AI20" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="AJ20" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="AK20" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>211</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>187</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>102</v>
-      </c>
-      <c r="AS20" s="26" t="s">
-        <v>137</v>
-      </c>
       <c r="AT20" t="s">
+        <v>371</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>228</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>230</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>231</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>232</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>233</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>234</v>
+      </c>
+      <c r="BC20" t="s">
         <v>372</v>
       </c>
-      <c r="AU20" t="s">
-        <v>228</v>
-      </c>
-      <c r="AV20" t="s">
-        <v>229</v>
-      </c>
-      <c r="AW20" t="s">
-        <v>230</v>
-      </c>
-      <c r="AX20" t="s">
-        <v>231</v>
-      </c>
-      <c r="AY20" t="s">
-        <v>232</v>
-      </c>
-      <c r="AZ20" t="s">
-        <v>233</v>
-      </c>
-      <c r="BA20" t="s">
-        <v>234</v>
-      </c>
-      <c r="BB20" t="s">
-        <v>235</v>
-      </c>
-      <c r="BC20" t="s">
+      <c r="BD20" t="s">
         <v>373</v>
       </c>
-      <c r="BD20" t="s">
+      <c r="BE20" t="s">
         <v>374</v>
       </c>
-      <c r="BE20" t="s">
+      <c r="BF20" t="s">
         <v>375</v>
       </c>
-      <c r="BF20" t="s">
+      <c r="BG20" t="s">
         <v>376</v>
       </c>
-      <c r="BG20" t="s">
+      <c r="BH20" t="s">
         <v>377</v>
       </c>
-      <c r="BH20" t="s">
+      <c r="BI20" t="s">
         <v>378</v>
       </c>
-      <c r="BI20" t="s">
+      <c r="BJ20" t="s">
         <v>379</v>
       </c>
-      <c r="BJ20" t="s">
-        <v>380</v>
-      </c>
-      <c r="BQ20" s="19"/>
-      <c r="BT20" s="31"/>
-      <c r="BU20" s="22"/>
-      <c r="BZ20" s="21"/>
-      <c r="CA20" s="21"/>
-      <c r="CF20" s="14"/>
+      <c r="BQ20" s="16"/>
+      <c r="BT20" s="26"/>
+      <c r="BU20" s="19"/>
+      <c r="BZ20" s="18"/>
+      <c r="CA20" s="18"/>
+      <c r="CF20" s="11"/>
     </row>
     <row r="21" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1">
         <v>140935</v>
@@ -4306,103 +4222,103 @@
       <c r="C21" s="1">
         <v>239801</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="29">
         <v>239723</v>
       </c>
-      <c r="O21" s="14"/>
-      <c r="AE21" s="23" t="s">
+      <c r="O21" s="11"/>
+      <c r="AE21" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF21" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH21" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI21" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ21" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK21" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR21" t="s">
         <v>102</v>
       </c>
-      <c r="AF21" s="23" t="s">
+      <c r="AS21" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="AG21" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH21" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="AI21" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="AJ21" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="AK21" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>212</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>187</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>103</v>
-      </c>
-      <c r="AS21" s="26" t="s">
-        <v>138</v>
-      </c>
       <c r="AT21" t="s">
+        <v>380</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>228</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>230</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>231</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>232</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>233</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>234</v>
+      </c>
+      <c r="BC21" t="s">
         <v>381</v>
       </c>
-      <c r="AU21" t="s">
-        <v>228</v>
-      </c>
-      <c r="AV21" t="s">
-        <v>229</v>
-      </c>
-      <c r="AW21" t="s">
-        <v>230</v>
-      </c>
-      <c r="AX21" t="s">
-        <v>231</v>
-      </c>
-      <c r="AY21" t="s">
-        <v>232</v>
-      </c>
-      <c r="AZ21" t="s">
-        <v>233</v>
-      </c>
-      <c r="BA21" t="s">
-        <v>234</v>
-      </c>
-      <c r="BB21" t="s">
-        <v>235</v>
-      </c>
-      <c r="BC21" t="s">
+      <c r="BD21" t="s">
         <v>382</v>
       </c>
-      <c r="BD21" t="s">
+      <c r="BE21" t="s">
         <v>383</v>
       </c>
-      <c r="BE21" t="s">
+      <c r="BF21" t="s">
         <v>384</v>
       </c>
-      <c r="BF21" t="s">
+      <c r="BG21" t="s">
         <v>385</v>
       </c>
-      <c r="BG21" t="s">
+      <c r="BH21" t="s">
         <v>386</v>
       </c>
-      <c r="BH21" t="s">
+      <c r="BI21" t="s">
         <v>387</v>
       </c>
-      <c r="BI21" t="s">
+      <c r="BJ21" t="s">
         <v>388</v>
       </c>
-      <c r="BJ21" t="s">
-        <v>389</v>
-      </c>
-      <c r="BQ21" s="19"/>
-      <c r="BT21" s="31"/>
-      <c r="BU21" s="22"/>
-      <c r="CA21" s="21"/>
-      <c r="CF21" s="14"/>
+      <c r="BQ21" s="16"/>
+      <c r="BT21" s="26"/>
+      <c r="BU21" s="19"/>
+      <c r="CA21" s="18"/>
+      <c r="CF21" s="11"/>
     </row>
     <row r="22" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1">
         <v>388910790</v>
@@ -4410,204 +4326,204 @@
       <c r="C22" s="1">
         <v>458104049</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="29">
         <v>419564506</v>
       </c>
-      <c r="AE22" s="23" t="s">
+      <c r="AE22" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF22" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH22" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI22" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ22" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK22" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>212</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>189</v>
+      </c>
+      <c r="AR22" t="s">
         <v>103</v>
       </c>
-      <c r="AF22" s="23" t="s">
+      <c r="AS22" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="AG22" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH22" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="AI22" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="AJ22" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="AK22" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>213</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>190</v>
-      </c>
-      <c r="AR22" t="s">
-        <v>104</v>
-      </c>
-      <c r="AS22" s="26" t="s">
-        <v>139</v>
-      </c>
       <c r="AT22" t="s">
+        <v>389</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>228</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>230</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>231</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>232</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>233</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>234</v>
+      </c>
+      <c r="BC22" t="s">
         <v>390</v>
       </c>
-      <c r="AU22" t="s">
-        <v>228</v>
-      </c>
-      <c r="AV22" t="s">
-        <v>229</v>
-      </c>
-      <c r="AW22" t="s">
-        <v>230</v>
-      </c>
-      <c r="AX22" t="s">
-        <v>231</v>
-      </c>
-      <c r="AY22" t="s">
-        <v>232</v>
-      </c>
-      <c r="AZ22" t="s">
-        <v>233</v>
-      </c>
-      <c r="BA22" t="s">
-        <v>234</v>
-      </c>
-      <c r="BB22" t="s">
-        <v>235</v>
-      </c>
-      <c r="BC22" t="s">
+      <c r="BD22" t="s">
         <v>391</v>
       </c>
-      <c r="BD22" t="s">
+      <c r="BE22" t="s">
         <v>392</v>
       </c>
-      <c r="BE22" t="s">
+      <c r="BF22" t="s">
         <v>393</v>
       </c>
-      <c r="BF22" t="s">
+      <c r="BG22" t="s">
         <v>394</v>
       </c>
-      <c r="BG22" t="s">
+      <c r="BH22" t="s">
         <v>395</v>
       </c>
-      <c r="BH22" t="s">
+      <c r="BI22" t="s">
         <v>396</v>
       </c>
-      <c r="BI22" t="s">
+      <c r="BJ22" t="s">
         <v>397</v>
       </c>
-      <c r="BJ22" t="s">
-        <v>398</v>
-      </c>
-      <c r="BQ22" s="19"/>
-      <c r="BT22" s="31"/>
-      <c r="BU22" s="22"/>
-      <c r="CA22" s="21"/>
-      <c r="CF22" s="14"/>
+      <c r="BQ22" s="16"/>
+      <c r="BT22" s="26"/>
+      <c r="BU22" s="19"/>
+      <c r="CA22" s="18"/>
+      <c r="CF22" s="11"/>
     </row>
     <row r="23" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>497</v>
-      </c>
-      <c r="AE23" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>490</v>
+      </c>
+      <c r="AE23" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF23" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH23" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI23" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ23" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK23" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM23" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR23" t="s">
         <v>104</v>
       </c>
-      <c r="AF23" s="23" t="s">
+      <c r="AS23" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="AG23" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH23" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="AI23" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="AJ23" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="AK23" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="AM23" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>187</v>
-      </c>
-      <c r="AR23" t="s">
-        <v>105</v>
-      </c>
-      <c r="AS23" s="27" t="s">
-        <v>140</v>
-      </c>
       <c r="AT23" t="s">
+        <v>398</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>228</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>230</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>231</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>232</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>233</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>234</v>
+      </c>
+      <c r="BC23" t="s">
         <v>399</v>
       </c>
-      <c r="AU23" t="s">
-        <v>228</v>
-      </c>
-      <c r="AV23" t="s">
-        <v>229</v>
-      </c>
-      <c r="AW23" t="s">
-        <v>230</v>
-      </c>
-      <c r="AX23" t="s">
-        <v>231</v>
-      </c>
-      <c r="AY23" t="s">
-        <v>232</v>
-      </c>
-      <c r="AZ23" t="s">
-        <v>233</v>
-      </c>
-      <c r="BA23" t="s">
-        <v>234</v>
-      </c>
-      <c r="BB23" t="s">
-        <v>235</v>
-      </c>
-      <c r="BC23" t="s">
+      <c r="BD23" t="s">
         <v>400</v>
       </c>
-      <c r="BD23" t="s">
+      <c r="BE23" t="s">
         <v>401</v>
       </c>
-      <c r="BE23" t="s">
+      <c r="BF23" t="s">
         <v>402</v>
       </c>
-      <c r="BF23" t="s">
+      <c r="BG23" t="s">
         <v>403</v>
       </c>
-      <c r="BG23" t="s">
+      <c r="BH23" t="s">
         <v>404</v>
       </c>
-      <c r="BH23" t="s">
+      <c r="BI23" t="s">
         <v>405</v>
       </c>
-      <c r="BI23" t="s">
+      <c r="BJ23" t="s">
         <v>406</v>
       </c>
-      <c r="BJ23" t="s">
-        <v>407</v>
-      </c>
-      <c r="BQ23" s="19"/>
-      <c r="BT23" s="31"/>
-      <c r="BU23" s="22"/>
-      <c r="CF23" s="14"/>
+      <c r="BQ23" s="16"/>
+      <c r="BT23" s="26"/>
+      <c r="BU23" s="19"/>
+      <c r="CF23" s="11"/>
     </row>
     <row r="24" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" s="1">
         <v>5607</v>
@@ -4615,91 +4531,91 @@
       <c r="C24" s="1">
         <v>8530</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="29">
         <v>9838</v>
       </c>
-      <c r="AE24" s="23" t="s">
+      <c r="AE24" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF24" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH24" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI24" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ24" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK24" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>214</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR24" t="s">
         <v>105</v>
       </c>
-      <c r="AF24" s="23" t="s">
+      <c r="AS24" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="AG24" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH24" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI24" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="AJ24" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="AK24" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>215</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>187</v>
-      </c>
-      <c r="AR24" t="s">
-        <v>106</v>
-      </c>
-      <c r="AS24" s="26" t="s">
-        <v>141</v>
-      </c>
       <c r="AT24" t="s">
+        <v>407</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>228</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>230</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>231</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>232</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>233</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>234</v>
+      </c>
+      <c r="BC24" t="s">
         <v>408</v>
       </c>
-      <c r="AU24" t="s">
-        <v>228</v>
-      </c>
-      <c r="AV24" t="s">
-        <v>229</v>
-      </c>
-      <c r="AW24" t="s">
-        <v>230</v>
-      </c>
-      <c r="AX24" t="s">
-        <v>231</v>
-      </c>
-      <c r="AY24" t="s">
-        <v>232</v>
-      </c>
-      <c r="AZ24" t="s">
-        <v>233</v>
-      </c>
-      <c r="BA24" t="s">
-        <v>234</v>
-      </c>
-      <c r="BB24" t="s">
-        <v>235</v>
-      </c>
-      <c r="BC24" t="s">
+      <c r="BD24" t="s">
         <v>409</v>
       </c>
-      <c r="BD24" t="s">
+      <c r="BE24" t="s">
         <v>410</v>
       </c>
-      <c r="BE24" t="s">
+      <c r="BF24" t="s">
         <v>411</v>
       </c>
-      <c r="BF24" t="s">
-        <v>412</v>
-      </c>
-      <c r="BQ24" s="19"/>
-      <c r="BT24" s="31"/>
-      <c r="BU24" s="22"/>
-      <c r="BZ24" s="21"/>
-      <c r="CA24" s="21"/>
-      <c r="CF24" s="14"/>
+      <c r="BQ24" s="16"/>
+      <c r="BT24" s="26"/>
+      <c r="BU24" s="19"/>
+      <c r="BZ24" s="18"/>
+      <c r="CA24" s="18"/>
+      <c r="CF24" s="11"/>
     </row>
     <row r="25" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" s="1">
         <v>2191</v>
@@ -4707,101 +4623,101 @@
       <c r="C25" s="1">
         <v>2963</v>
       </c>
-      <c r="D25" s="35">
+      <c r="D25" s="29">
         <v>4023</v>
       </c>
-      <c r="AE25" s="23" t="s">
+      <c r="AE25" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF25" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH25" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI25" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ25" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK25" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR25" t="s">
         <v>106</v>
       </c>
-      <c r="AF25" s="23" t="s">
+      <c r="AS25" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="AG25" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH25" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="AI25" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="AJ25" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="AK25" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>216</v>
-      </c>
-      <c r="AN25" t="s">
-        <v>187</v>
-      </c>
-      <c r="AR25" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS25" s="26" t="s">
-        <v>142</v>
-      </c>
       <c r="AT25" t="s">
+        <v>412</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>228</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>230</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>231</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>232</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>233</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>234</v>
+      </c>
+      <c r="BC25" t="s">
         <v>413</v>
       </c>
-      <c r="AU25" t="s">
-        <v>228</v>
-      </c>
-      <c r="AV25" t="s">
-        <v>229</v>
-      </c>
-      <c r="AW25" t="s">
-        <v>230</v>
-      </c>
-      <c r="AX25" t="s">
-        <v>231</v>
-      </c>
-      <c r="AY25" t="s">
-        <v>232</v>
-      </c>
-      <c r="AZ25" t="s">
-        <v>233</v>
-      </c>
-      <c r="BA25" t="s">
-        <v>234</v>
-      </c>
-      <c r="BB25" t="s">
-        <v>235</v>
-      </c>
-      <c r="BC25" t="s">
+      <c r="BD25" t="s">
         <v>414</v>
       </c>
-      <c r="BD25" t="s">
+      <c r="BE25" t="s">
         <v>415</v>
       </c>
-      <c r="BE25" t="s">
+      <c r="BF25" t="s">
         <v>416</v>
       </c>
-      <c r="BF25" t="s">
+      <c r="BG25" t="s">
         <v>417</v>
       </c>
-      <c r="BG25" t="s">
+      <c r="BH25" t="s">
         <v>418</v>
       </c>
-      <c r="BH25" t="s">
+      <c r="BI25" t="s">
         <v>419</v>
       </c>
-      <c r="BI25" t="s">
+      <c r="BJ25" t="s">
         <v>420</v>
       </c>
-      <c r="BJ25" t="s">
-        <v>421</v>
-      </c>
-      <c r="BQ25" s="19"/>
-      <c r="BT25" s="31"/>
-      <c r="BU25" s="22"/>
-      <c r="CF25" s="14"/>
+      <c r="BQ25" s="16"/>
+      <c r="BT25" s="26"/>
+      <c r="BU25" s="19"/>
+      <c r="CF25" s="11"/>
     </row>
     <row r="26" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" s="1">
         <v>16917</v>
@@ -4809,101 +4725,101 @@
       <c r="C26" s="1">
         <v>12082</v>
       </c>
-      <c r="D26" s="35">
+      <c r="D26" s="29">
         <v>9988</v>
       </c>
-      <c r="AE26" s="23" t="s">
+      <c r="AE26" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF26" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH26" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI26" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ26" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK26" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN26" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR26" t="s">
         <v>107</v>
       </c>
-      <c r="AF26" s="23" t="s">
+      <c r="AS26" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="AG26" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH26" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI26" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="AJ26" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="AK26" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="AM26" t="s">
-        <v>217</v>
-      </c>
-      <c r="AN26" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="AR26" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS26" s="26" t="s">
-        <v>143</v>
-      </c>
       <c r="AT26" t="s">
+        <v>421</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>228</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>230</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>231</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>232</v>
+      </c>
+      <c r="BA26" t="s">
+        <v>233</v>
+      </c>
+      <c r="BB26" t="s">
+        <v>234</v>
+      </c>
+      <c r="BC26" t="s">
         <v>422</v>
       </c>
-      <c r="AU26" t="s">
-        <v>228</v>
-      </c>
-      <c r="AV26" t="s">
-        <v>229</v>
-      </c>
-      <c r="AW26" t="s">
-        <v>230</v>
-      </c>
-      <c r="AX26" t="s">
-        <v>231</v>
-      </c>
-      <c r="AY26" t="s">
-        <v>232</v>
-      </c>
-      <c r="AZ26" t="s">
-        <v>233</v>
-      </c>
-      <c r="BA26" t="s">
-        <v>234</v>
-      </c>
-      <c r="BB26" t="s">
-        <v>235</v>
-      </c>
-      <c r="BC26" t="s">
+      <c r="BD26" t="s">
         <v>423</v>
       </c>
-      <c r="BD26" t="s">
+      <c r="BE26" t="s">
         <v>424</v>
       </c>
-      <c r="BE26" t="s">
+      <c r="BF26" t="s">
         <v>425</v>
       </c>
-      <c r="BF26" t="s">
+      <c r="BG26" t="s">
         <v>426</v>
       </c>
-      <c r="BG26" t="s">
+      <c r="BH26" t="s">
         <v>427</v>
       </c>
-      <c r="BH26" t="s">
+      <c r="BI26" t="s">
         <v>428</v>
       </c>
-      <c r="BI26" t="s">
+      <c r="BJ26" t="s">
         <v>429</v>
       </c>
-      <c r="BJ26" t="s">
-        <v>430</v>
-      </c>
-      <c r="BQ26" s="19"/>
-      <c r="BT26" s="31"/>
-      <c r="BU26" s="22"/>
-      <c r="CF26" s="14"/>
+      <c r="BQ26" s="16"/>
+      <c r="BT26" s="26"/>
+      <c r="BU26" s="19"/>
+      <c r="CF26" s="11"/>
     </row>
     <row r="27" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27" s="6">
         <v>44537</v>
@@ -4911,816 +4827,816 @@
       <c r="C27" s="6">
         <v>34936</v>
       </c>
-      <c r="D27" s="36">
+      <c r="D27" s="30">
         <v>26763</v>
       </c>
-      <c r="AE27" s="23" t="s">
+      <c r="AE27" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF27" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH27" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI27" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ27" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK27" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>217</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR27" t="s">
         <v>108</v>
       </c>
-      <c r="AF27" s="23" t="s">
+      <c r="AS27" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AT27" t="s">
+        <v>430</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>228</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>230</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>231</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>232</v>
+      </c>
+      <c r="BA27" t="s">
+        <v>233</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>234</v>
+      </c>
+      <c r="BC27" t="s">
+        <v>431</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>432</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>433</v>
+      </c>
+      <c r="BF27" t="s">
+        <v>434</v>
+      </c>
+      <c r="BG27" t="s">
+        <v>435</v>
+      </c>
+      <c r="BH27" t="s">
+        <v>436</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>437</v>
+      </c>
+      <c r="BJ27" t="s">
+        <v>438</v>
+      </c>
+      <c r="BQ27" s="16"/>
+      <c r="BT27" s="26"/>
+      <c r="BU27" s="19"/>
+      <c r="CF27" s="11"/>
+    </row>
+    <row r="28" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A28" s="11"/>
+      <c r="D28" s="27"/>
+      <c r="AE28" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF28" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH28" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI28" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ28" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="AH27" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="AI27" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="AJ27" s="23" t="s">
+      <c r="AK28" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="AK27" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="AM27" t="s">
+      <c r="AM28" t="s">
         <v>218</v>
       </c>
-      <c r="AN27" t="s">
-        <v>187</v>
-      </c>
-      <c r="AR27" t="s">
+      <c r="AN28" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR28" t="s">
         <v>109</v>
       </c>
-      <c r="AS27" s="26" t="s">
+      <c r="AS28" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="AT27" t="s">
-        <v>431</v>
-      </c>
-      <c r="AU27" t="s">
+      <c r="AT28" t="s">
+        <v>439</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV28" t="s">
         <v>228</v>
       </c>
-      <c r="AV27" t="s">
+      <c r="AW28" t="s">
         <v>229</v>
       </c>
-      <c r="AW27" t="s">
+      <c r="AX28" t="s">
         <v>230</v>
       </c>
-      <c r="AX27" t="s">
+      <c r="AY28" t="s">
         <v>231</v>
       </c>
-      <c r="AY27" t="s">
+      <c r="AZ28" t="s">
         <v>232</v>
       </c>
-      <c r="AZ27" t="s">
+      <c r="BA28" t="s">
         <v>233</v>
       </c>
-      <c r="BA27" t="s">
+      <c r="BB28" t="s">
         <v>234</v>
       </c>
-      <c r="BB27" t="s">
-        <v>235</v>
-      </c>
-      <c r="BC27" t="s">
-        <v>432</v>
-      </c>
-      <c r="BD27" t="s">
-        <v>433</v>
-      </c>
-      <c r="BE27" t="s">
-        <v>434</v>
-      </c>
-      <c r="BF27" t="s">
-        <v>435</v>
-      </c>
-      <c r="BG27" t="s">
-        <v>436</v>
-      </c>
-      <c r="BH27" t="s">
-        <v>437</v>
-      </c>
-      <c r="BI27" t="s">
-        <v>438</v>
-      </c>
-      <c r="BJ27" t="s">
-        <v>439</v>
-      </c>
-      <c r="BQ27" s="19"/>
-      <c r="BT27" s="31"/>
-      <c r="BU27" s="22"/>
-      <c r="CF27" s="14"/>
-    </row>
-    <row r="28" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="D28" s="33"/>
-      <c r="AE28" s="23" t="s">
+      <c r="BC28" t="s">
+        <v>440</v>
+      </c>
+      <c r="BD28" t="s">
+        <v>441</v>
+      </c>
+      <c r="BE28" t="s">
+        <v>442</v>
+      </c>
+      <c r="BF28" t="s">
+        <v>443</v>
+      </c>
+      <c r="BG28" t="s">
+        <v>444</v>
+      </c>
+      <c r="BH28" t="s">
+        <v>445</v>
+      </c>
+      <c r="BI28" t="s">
+        <v>446</v>
+      </c>
+      <c r="BJ28" t="s">
+        <v>447</v>
+      </c>
+      <c r="BQ28" s="16"/>
+      <c r="BT28" s="26"/>
+      <c r="BU28" s="19"/>
+      <c r="CF28" s="11"/>
+    </row>
+    <row r="29" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE29" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="AF28" s="23" t="s">
+      <c r="AF29" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="AG28" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH28" s="23" t="s">
+      <c r="AG29" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH29" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="AI28" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="AJ28" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="AK28" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="AM28" t="s">
+      <c r="AI29" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ29" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="AM29" t="s">
         <v>219</v>
       </c>
-      <c r="AN28" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="AR28" t="s">
+      <c r="AN29" s="18"/>
+      <c r="AR29" t="s">
         <v>110</v>
       </c>
-      <c r="AS28" s="26" t="s">
+      <c r="AS29" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="AT28" t="s">
-        <v>440</v>
-      </c>
-      <c r="AU28" t="s">
+      <c r="AT29" t="s">
+        <v>448</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV29" t="s">
         <v>228</v>
       </c>
-      <c r="AV28" t="s">
+      <c r="AW29" t="s">
         <v>229</v>
       </c>
-      <c r="AW28" t="s">
+      <c r="AX29" t="s">
         <v>230</v>
       </c>
-      <c r="AX28" t="s">
+      <c r="AY29" t="s">
         <v>231</v>
       </c>
-      <c r="AY28" t="s">
+      <c r="AZ29" t="s">
         <v>232</v>
       </c>
-      <c r="AZ28" t="s">
+      <c r="BA29" t="s">
         <v>233</v>
       </c>
-      <c r="BA28" t="s">
+      <c r="BB29" t="s">
         <v>234</v>
       </c>
-      <c r="BB28" t="s">
-        <v>235</v>
-      </c>
-      <c r="BC28" t="s">
-        <v>441</v>
-      </c>
-      <c r="BD28" t="s">
-        <v>442</v>
-      </c>
-      <c r="BE28" t="s">
-        <v>443</v>
-      </c>
-      <c r="BF28" t="s">
-        <v>444</v>
-      </c>
-      <c r="BG28" t="s">
-        <v>445</v>
-      </c>
-      <c r="BH28" t="s">
-        <v>446</v>
-      </c>
-      <c r="BI28" t="s">
-        <v>447</v>
-      </c>
-      <c r="BJ28" t="s">
-        <v>448</v>
-      </c>
-      <c r="BQ28" s="19"/>
-      <c r="BT28" s="31"/>
-      <c r="BU28" s="22"/>
-      <c r="CF28" s="14"/>
-    </row>
-    <row r="29" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AE29" s="23" t="s">
+      <c r="BC29" t="s">
+        <v>449</v>
+      </c>
+      <c r="BD29" t="s">
+        <v>450</v>
+      </c>
+      <c r="BE29" t="s">
+        <v>451</v>
+      </c>
+      <c r="BF29" t="s">
+        <v>452</v>
+      </c>
+      <c r="BQ29" s="16"/>
+      <c r="BT29" s="26"/>
+      <c r="BU29" s="19"/>
+      <c r="CF29" s="11"/>
+    </row>
+    <row r="30" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="AE30" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="AF29" s="23" t="s">
+      <c r="AF30" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="AG29" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH29" s="23" t="s">
+      <c r="AG30" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH30" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="AI29" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="AJ29" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="AM29" t="s">
+      <c r="AI30" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ30" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="AM30" t="s">
         <v>220</v>
       </c>
-      <c r="AN29" s="21"/>
-      <c r="AR29" t="s">
+      <c r="AR30" t="s">
         <v>111</v>
       </c>
-      <c r="AS29" s="26" t="s">
+      <c r="AS30" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="AT29" t="s">
-        <v>449</v>
-      </c>
-      <c r="AU29" t="s">
+      <c r="AT30" t="s">
+        <v>453</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV30" t="s">
         <v>228</v>
       </c>
-      <c r="AV29" t="s">
+      <c r="AW30" t="s">
         <v>229</v>
       </c>
-      <c r="AW29" t="s">
+      <c r="AX30" t="s">
         <v>230</v>
       </c>
-      <c r="AX29" t="s">
+      <c r="AY30" t="s">
         <v>231</v>
       </c>
-      <c r="AY29" t="s">
+      <c r="AZ30" t="s">
         <v>232</v>
       </c>
-      <c r="AZ29" t="s">
+      <c r="BA30" t="s">
         <v>233</v>
       </c>
-      <c r="BA29" t="s">
+      <c r="BB30" t="s">
         <v>234</v>
       </c>
-      <c r="BB29" t="s">
-        <v>235</v>
-      </c>
-      <c r="BC29" t="s">
-        <v>450</v>
-      </c>
-      <c r="BD29" t="s">
-        <v>451</v>
-      </c>
-      <c r="BE29" t="s">
-        <v>452</v>
-      </c>
-      <c r="BF29" t="s">
-        <v>453</v>
-      </c>
-      <c r="BQ29" s="19"/>
-      <c r="BT29" s="31"/>
-      <c r="BU29" s="22"/>
-      <c r="CF29" s="14"/>
-    </row>
-    <row r="30" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="AE30" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF30" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH30" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="AI30" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="AJ30" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="AM30" t="s">
-        <v>221</v>
-      </c>
-      <c r="AR30" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS30" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT30" t="s">
+      <c r="BC30" t="s">
         <v>454</v>
       </c>
-      <c r="AU30" t="s">
-        <v>228</v>
-      </c>
-      <c r="AV30" t="s">
-        <v>229</v>
-      </c>
-      <c r="AW30" t="s">
-        <v>230</v>
-      </c>
-      <c r="AX30" t="s">
-        <v>231</v>
-      </c>
-      <c r="AY30" t="s">
-        <v>232</v>
-      </c>
-      <c r="AZ30" t="s">
-        <v>233</v>
-      </c>
-      <c r="BA30" t="s">
-        <v>234</v>
-      </c>
-      <c r="BB30" t="s">
-        <v>235</v>
-      </c>
-      <c r="BC30" t="s">
+      <c r="BD30" t="s">
         <v>455</v>
       </c>
-      <c r="BD30" t="s">
+      <c r="BE30" t="s">
         <v>456</v>
       </c>
-      <c r="BE30" t="s">
+      <c r="BF30" t="s">
         <v>457</v>
       </c>
-      <c r="BF30" t="s">
-        <v>458</v>
-      </c>
-      <c r="BQ30" s="19"/>
-      <c r="BT30" s="31"/>
-      <c r="BU30" s="22"/>
-      <c r="CF30" s="14"/>
+      <c r="BQ30" s="16"/>
+      <c r="BT30" s="26"/>
+      <c r="BU30" s="19"/>
+      <c r="CF30" s="11"/>
     </row>
     <row r="31" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="47" t="s">
+      <c r="C31" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="48" t="s">
+      <c r="D31" s="37" t="s">
         <v>2</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H31" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE31" s="23" t="s">
+      <c r="AE31" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF31" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH31" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI31" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ31" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="AM31" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="AN31" s="18"/>
+      <c r="AR31" t="s">
         <v>112</v>
       </c>
-      <c r="AF31" s="23" t="s">
+      <c r="AS31" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="AG31" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH31" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="AI31" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="AJ31" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="AM31" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="AN31" s="21"/>
-      <c r="AR31" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS31" s="26" t="s">
-        <v>148</v>
-      </c>
       <c r="AT31" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AU31" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV31" t="s">
         <v>228</v>
       </c>
-      <c r="AV31" t="s">
+      <c r="AW31" t="s">
         <v>229</v>
       </c>
-      <c r="AW31" t="s">
+      <c r="AX31" t="s">
         <v>230</v>
       </c>
-      <c r="AX31" t="s">
+      <c r="AY31" t="s">
         <v>231</v>
       </c>
-      <c r="AY31" t="s">
+      <c r="AZ31" t="s">
         <v>232</v>
       </c>
-      <c r="AZ31" t="s">
+      <c r="BA31" t="s">
         <v>233</v>
       </c>
-      <c r="BA31" t="s">
+      <c r="BB31" t="s">
         <v>234</v>
       </c>
-      <c r="BB31" t="s">
-        <v>235</v>
-      </c>
       <c r="BC31" t="s">
+        <v>462</v>
+      </c>
+      <c r="BD31" t="s">
         <v>463</v>
       </c>
-      <c r="BD31" t="s">
+      <c r="BE31" t="s">
         <v>464</v>
       </c>
-      <c r="BE31" t="s">
+      <c r="BF31" t="s">
         <v>465</v>
       </c>
-      <c r="BF31" t="s">
+      <c r="BG31" t="s">
         <v>466</v>
       </c>
-      <c r="BG31" t="s">
+      <c r="BH31" t="s">
         <v>467</v>
       </c>
-      <c r="BH31" t="s">
+      <c r="BI31" t="s">
         <v>468</v>
       </c>
-      <c r="BI31" t="s">
-        <v>469</v>
-      </c>
-      <c r="BQ31" s="19"/>
-      <c r="BT31" s="31"/>
-      <c r="BU31" s="22"/>
-      <c r="CF31" s="14"/>
+      <c r="BQ31" s="16"/>
+      <c r="BT31" s="26"/>
+      <c r="BU31" s="19"/>
+      <c r="CF31" s="11"/>
     </row>
     <row r="32" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="35" t="s">
-        <v>66</v>
+        <v>43</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>65</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE32" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE32" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF32" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH32" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="AI32" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ32" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK32" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM32" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR32" t="s">
         <v>113</v>
       </c>
-      <c r="AF32" s="23" t="s">
+      <c r="AS32" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="AG32" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH32" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI32" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="AJ32" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="AK32" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="AM32" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>187</v>
-      </c>
-      <c r="AR32" t="s">
-        <v>114</v>
-      </c>
-      <c r="AS32" s="26" t="s">
-        <v>149</v>
-      </c>
       <c r="AT32" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AU32" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV32" t="s">
         <v>228</v>
       </c>
-      <c r="AV32" t="s">
+      <c r="AW32" t="s">
         <v>229</v>
       </c>
-      <c r="AW32" t="s">
+      <c r="AX32" t="s">
         <v>230</v>
       </c>
-      <c r="AX32" t="s">
+      <c r="AY32" t="s">
         <v>231</v>
       </c>
-      <c r="AY32" t="s">
+      <c r="AZ32" t="s">
         <v>232</v>
       </c>
-      <c r="AZ32" t="s">
+      <c r="BA32" t="s">
         <v>233</v>
       </c>
-      <c r="BA32" t="s">
+      <c r="BB32" t="s">
         <v>234</v>
       </c>
-      <c r="BB32" t="s">
-        <v>235</v>
-      </c>
       <c r="BC32" t="s">
+        <v>469</v>
+      </c>
+      <c r="BD32" t="s">
         <v>470</v>
       </c>
-      <c r="BD32" t="s">
+      <c r="BE32" t="s">
         <v>471</v>
       </c>
-      <c r="BE32" t="s">
+      <c r="BF32" t="s">
         <v>472</v>
       </c>
-      <c r="BF32" t="s">
-        <v>473</v>
-      </c>
-      <c r="BQ32" s="19"/>
-      <c r="BT32" s="31"/>
-      <c r="BU32" s="22"/>
-      <c r="CF32" s="14"/>
+      <c r="BQ32" s="16"/>
+      <c r="BT32" s="26"/>
+      <c r="BU32" s="19"/>
+      <c r="CF32" s="11"/>
     </row>
     <row r="33" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="28">
+        <v>0.64</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE33" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF33" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH33" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI33" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ33" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK33" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>223</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>114</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>491</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>460</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>228</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>230</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>231</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>232</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>233</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>234</v>
+      </c>
+      <c r="BC33" t="s">
+        <v>473</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>474</v>
+      </c>
+      <c r="BE33" t="s">
+        <v>475</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>476</v>
+      </c>
+      <c r="BG33" t="s">
+        <v>477</v>
+      </c>
+      <c r="BH33" t="s">
+        <v>478</v>
+      </c>
+      <c r="BI33" t="s">
+        <v>479</v>
+      </c>
+      <c r="BJ33" t="s">
+        <v>480</v>
+      </c>
+      <c r="BT33" s="26"/>
+      <c r="BU33" s="19"/>
+      <c r="BZ33" s="18"/>
+      <c r="CA33" s="18"/>
+      <c r="CF33" s="11"/>
+    </row>
+    <row r="34" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="34">
-        <v>0.64</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE33" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF33" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH33" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="AI33" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="AJ33" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="AK33" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="AM33" t="s">
-        <v>224</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>187</v>
-      </c>
-      <c r="AR33" t="s">
-        <v>115</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>506</v>
-      </c>
-      <c r="AT33" t="s">
-        <v>461</v>
-      </c>
-      <c r="AU33" t="s">
-        <v>228</v>
-      </c>
-      <c r="AV33" t="s">
-        <v>229</v>
-      </c>
-      <c r="AW33" t="s">
-        <v>230</v>
-      </c>
-      <c r="AX33" t="s">
-        <v>231</v>
-      </c>
-      <c r="AY33" t="s">
-        <v>232</v>
-      </c>
-      <c r="AZ33" t="s">
-        <v>233</v>
-      </c>
-      <c r="BA33" t="s">
-        <v>234</v>
-      </c>
-      <c r="BB33" t="s">
-        <v>235</v>
-      </c>
-      <c r="BC33" t="s">
-        <v>474</v>
-      </c>
-      <c r="BD33" t="s">
-        <v>475</v>
-      </c>
-      <c r="BE33" t="s">
-        <v>476</v>
-      </c>
-      <c r="BF33" t="s">
-        <v>477</v>
-      </c>
-      <c r="BG33" t="s">
-        <v>478</v>
-      </c>
-      <c r="BH33" t="s">
-        <v>479</v>
-      </c>
-      <c r="BI33" t="s">
-        <v>480</v>
-      </c>
-      <c r="BJ33" t="s">
-        <v>481</v>
-      </c>
-      <c r="BT33" s="31"/>
-      <c r="BU33" s="22"/>
-      <c r="BZ33" s="21"/>
-      <c r="CA33" s="21"/>
-      <c r="CF33" s="14"/>
-    </row>
-    <row r="34" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A34" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE34" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE34" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF34" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH34" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI34" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ34" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK34" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>224</v>
+      </c>
+      <c r="AN34" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR34" t="s">
         <v>115</v>
       </c>
-      <c r="AF34" s="23" t="s">
+      <c r="AS34" t="s">
         <v>150</v>
       </c>
-      <c r="AG34" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH34" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="AI34" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="AJ34" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="AK34" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>225</v>
-      </c>
-      <c r="AN34" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="AR34" t="s">
-        <v>116</v>
-      </c>
-      <c r="AS34" t="s">
-        <v>151</v>
-      </c>
       <c r="AT34" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AU34" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV34" t="s">
         <v>228</v>
       </c>
-      <c r="AV34" t="s">
+      <c r="AW34" t="s">
         <v>229</v>
       </c>
-      <c r="AW34" t="s">
+      <c r="AX34" t="s">
         <v>230</v>
       </c>
-      <c r="AX34" t="s">
+      <c r="AY34" t="s">
         <v>231</v>
       </c>
-      <c r="AY34" t="s">
+      <c r="AZ34" t="s">
         <v>232</v>
       </c>
-      <c r="AZ34" t="s">
+      <c r="BA34" t="s">
         <v>233</v>
       </c>
-      <c r="BA34" t="s">
+      <c r="BB34" t="s">
         <v>234</v>
       </c>
-      <c r="BB34" t="s">
-        <v>235</v>
-      </c>
       <c r="BC34" t="s">
+        <v>481</v>
+      </c>
+      <c r="BD34" t="s">
         <v>482</v>
       </c>
-      <c r="BD34" t="s">
+      <c r="BE34" t="s">
         <v>483</v>
       </c>
-      <c r="BE34" t="s">
+      <c r="BF34" t="s">
         <v>484</v>
       </c>
-      <c r="BF34" t="s">
-        <v>485</v>
-      </c>
-      <c r="BQ34" s="19"/>
-      <c r="BR34" s="19"/>
-      <c r="BT34" s="31"/>
-      <c r="BU34" s="22"/>
-      <c r="CF34" s="14"/>
+      <c r="BQ34" s="16"/>
+      <c r="BR34" s="16"/>
+      <c r="BT34" s="26"/>
+      <c r="BU34" s="19"/>
+      <c r="CF34" s="11"/>
     </row>
     <row r="35" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE35" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF35" s="23" t="s">
-        <v>151</v>
+        <v>76</v>
+      </c>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE35" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF35" s="20" t="s">
+        <v>150</v>
       </c>
       <c r="AG35" t="s">
-        <v>185</v>
-      </c>
-      <c r="AH35" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="AI35" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="AJ35" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="AK35" s="23" t="s">
+      <c r="AH35" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI35" s="20" t="s">
         <v>190</v>
       </c>
+      <c r="AJ35" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK35" s="20" t="s">
+        <v>189</v>
+      </c>
       <c r="AM35" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AN35" t="s">
-        <v>190</v>
-      </c>
-      <c r="BQ35" s="19"/>
-      <c r="BR35" s="19"/>
-      <c r="BT35" s="31"/>
-      <c r="BU35" s="22"/>
-      <c r="CF35" s="14"/>
+        <v>189</v>
+      </c>
+      <c r="BQ35" s="16"/>
+      <c r="BR35" s="16"/>
+      <c r="BT35" s="26"/>
+      <c r="BU35" s="19"/>
+      <c r="CF35" s="11"/>
     </row>
     <row r="36" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE36" s="16"/>
+      <c r="AG36" s="19"/>
+      <c r="BQ36" s="16"/>
+      <c r="BR36" s="16"/>
+      <c r="BT36" s="26"/>
+      <c r="BU36" s="19"/>
+      <c r="CF36" s="11"/>
+    </row>
+    <row r="37" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A37" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE36" s="19"/>
-      <c r="AG36" s="22"/>
-      <c r="BQ36" s="19"/>
-      <c r="BR36" s="19"/>
-      <c r="BT36" s="31"/>
-      <c r="BU36" s="22"/>
-      <c r="CF36" s="14"/>
-    </row>
-    <row r="37" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG37" s="22"/>
-      <c r="AM37" s="21"/>
-      <c r="AN37" s="21"/>
-      <c r="BQ37" s="19"/>
-      <c r="BU37" s="22"/>
-      <c r="CF37" s="14"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG37" s="19"/>
+      <c r="AM37" s="18"/>
+      <c r="AN37" s="18"/>
+      <c r="BQ37" s="16"/>
+      <c r="BU37" s="19"/>
+      <c r="CF37" s="11"/>
     </row>
     <row r="38" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38" s="1">
         <v>2014144</v>
@@ -5728,20 +5644,20 @@
       <c r="C38" s="1">
         <v>1558833</v>
       </c>
-      <c r="D38" s="35">
+      <c r="D38" s="29">
         <v>275449</v>
       </c>
-      <c r="AE38" s="19"/>
-      <c r="AG38" s="22"/>
-      <c r="BQ38" s="19"/>
-      <c r="BR38" s="19"/>
-      <c r="BT38" s="31"/>
-      <c r="BU38" s="22"/>
-      <c r="CF38" s="14"/>
+      <c r="AE38" s="16"/>
+      <c r="AG38" s="19"/>
+      <c r="BQ38" s="16"/>
+      <c r="BR38" s="16"/>
+      <c r="BT38" s="26"/>
+      <c r="BU38" s="19"/>
+      <c r="CF38" s="11"/>
     </row>
     <row r="39" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B39" s="1">
         <v>204937</v>
@@ -5749,21 +5665,21 @@
       <c r="C39" s="1">
         <v>233426</v>
       </c>
-      <c r="D39" s="35">
+      <c r="D39" s="29">
         <v>176209</v>
       </c>
-      <c r="AE39" s="19"/>
-      <c r="AG39" s="22"/>
-      <c r="BQ39" s="19"/>
-      <c r="BT39" s="31"/>
-      <c r="BU39" s="20"/>
-      <c r="BZ39" s="21"/>
-      <c r="CA39" s="21"/>
-      <c r="CF39" s="14"/>
+      <c r="AE39" s="16"/>
+      <c r="AG39" s="19"/>
+      <c r="BQ39" s="16"/>
+      <c r="BT39" s="26"/>
+      <c r="BU39" s="17"/>
+      <c r="BZ39" s="18"/>
+      <c r="CA39" s="18"/>
+      <c r="CF39" s="11"/>
     </row>
     <row r="40" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B40" s="1">
         <v>45979</v>
@@ -5771,21 +5687,21 @@
       <c r="C40" s="1">
         <v>54310</v>
       </c>
-      <c r="D40" s="35">
+      <c r="D40" s="29">
         <v>52907</v>
       </c>
-      <c r="AE40" s="19"/>
-      <c r="AG40" s="22"/>
-      <c r="BQ40" s="19"/>
-      <c r="BR40" s="19"/>
-      <c r="BT40" s="31"/>
-      <c r="BU40" s="22"/>
-      <c r="BZ40" s="21"/>
-      <c r="CF40" s="14"/>
+      <c r="AE40" s="16"/>
+      <c r="AG40" s="19"/>
+      <c r="BQ40" s="16"/>
+      <c r="BR40" s="16"/>
+      <c r="BT40" s="26"/>
+      <c r="BU40" s="19"/>
+      <c r="BZ40" s="18"/>
+      <c r="CF40" s="11"/>
     </row>
     <row r="41" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B41" s="1">
         <v>14797</v>
@@ -5793,21 +5709,21 @@
       <c r="C41" s="1">
         <v>21762</v>
       </c>
-      <c r="D41" s="35">
+      <c r="D41" s="29">
         <v>21646</v>
       </c>
-      <c r="AE41" s="19"/>
-      <c r="AG41" s="22"/>
-      <c r="AM41" s="21"/>
-      <c r="AN41" s="21"/>
-      <c r="BQ41" s="19"/>
-      <c r="BU41" s="22"/>
-      <c r="BZ41" s="21"/>
-      <c r="CF41" s="14"/>
+      <c r="AE41" s="16"/>
+      <c r="AG41" s="19"/>
+      <c r="AM41" s="18"/>
+      <c r="AN41" s="18"/>
+      <c r="BQ41" s="16"/>
+      <c r="BU41" s="19"/>
+      <c r="BZ41" s="18"/>
+      <c r="CF41" s="11"/>
     </row>
     <row r="42" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B42" s="1">
         <v>1247</v>
@@ -5815,22 +5731,22 @@
       <c r="C42" s="1">
         <v>2797</v>
       </c>
-      <c r="D42" s="35">
+      <c r="D42" s="29">
         <v>2790</v>
       </c>
-      <c r="AE42" s="19"/>
-      <c r="AG42" s="20"/>
-      <c r="AM42" s="21"/>
-      <c r="AN42" s="21"/>
-      <c r="BQ42" s="19"/>
-      <c r="BT42" s="31"/>
-      <c r="BU42" s="22"/>
-      <c r="CA42" s="21"/>
-      <c r="CF42" s="14"/>
+      <c r="AE42" s="16"/>
+      <c r="AG42" s="17"/>
+      <c r="AM42" s="18"/>
+      <c r="AN42" s="18"/>
+      <c r="BQ42" s="16"/>
+      <c r="BT42" s="26"/>
+      <c r="BU42" s="19"/>
+      <c r="CA42" s="18"/>
+      <c r="CF42" s="11"/>
     </row>
     <row r="43" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B43" s="1">
         <v>59</v>
@@ -5838,13 +5754,13 @@
       <c r="C43" s="1">
         <v>227</v>
       </c>
-      <c r="D43" s="35">
+      <c r="D43" s="29">
         <v>228</v>
       </c>
     </row>
     <row r="44" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B44" s="1">
         <v>1415454228</v>
@@ -5852,13 +5768,13 @@
       <c r="C44" s="1">
         <v>1428218784</v>
       </c>
-      <c r="D44" s="35">
+      <c r="D44" s="29">
         <v>935639707</v>
       </c>
     </row>
     <row r="45" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B45" s="1">
         <v>795320453</v>
@@ -5866,13 +5782,13 @@
       <c r="C45" s="1">
         <v>980573591</v>
       </c>
-      <c r="D45" s="35">
+      <c r="D45" s="29">
         <v>878552059</v>
       </c>
     </row>
     <row r="46" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B46" s="1">
         <v>450793990</v>
@@ -5880,13 +5796,13 @@
       <c r="C46" s="1">
         <v>605236565</v>
       </c>
-      <c r="D46" s="35">
+      <c r="D46" s="29">
         <v>595334794</v>
       </c>
     </row>
     <row r="47" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B47" s="1">
         <v>233974571</v>
@@ -5894,13 +5810,13 @@
       <c r="C47" s="1">
         <v>376840484</v>
       </c>
-      <c r="D47" s="35">
+      <c r="D47" s="29">
         <v>375307919</v>
       </c>
     </row>
     <row r="48" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B48" s="1">
         <v>41087397</v>
@@ -5908,13 +5824,13 @@
       <c r="C48" s="1">
         <v>97111126</v>
       </c>
-      <c r="D48" s="35">
+      <c r="D48" s="29">
         <v>96911185</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B49" s="1">
         <v>3486014</v>
@@ -5922,13 +5838,13 @@
       <c r="C49" s="1">
         <v>13820739</v>
       </c>
-      <c r="D49" s="35">
+      <c r="D49" s="29">
         <v>13868049</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B50" s="1">
         <v>425314</v>
@@ -5936,13 +5852,13 @@
       <c r="C50" s="1">
         <v>408201</v>
       </c>
-      <c r="D50" s="35">
+      <c r="D50" s="29">
         <v>233577</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B51" s="1">
         <v>120413</v>
@@ -5950,13 +5866,13 @@
       <c r="C51" s="1">
         <v>133345</v>
       </c>
-      <c r="D51" s="35">
+      <c r="D51" s="29">
         <v>133345</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B52" s="1">
         <v>943680961</v>
@@ -5964,27 +5880,27 @@
       <c r="C52" s="1">
         <v>1104610882</v>
       </c>
-      <c r="D52" s="35">
+      <c r="D52" s="29">
         <v>921230050</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D53" s="35" t="s">
-        <v>64</v>
+      <c r="D53" s="29" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B54" s="1">
         <v>4656</v>
@@ -5992,13 +5908,13 @@
       <c r="C54" s="1">
         <v>5961</v>
       </c>
-      <c r="D54" s="35">
+      <c r="D54" s="29">
         <v>7798</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B55" s="1">
         <v>1649</v>
@@ -6006,13 +5922,13 @@
       <c r="C55" s="1">
         <v>2047</v>
       </c>
-      <c r="D55" s="35">
+      <c r="D55" s="29">
         <v>3380</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B56" s="1">
         <v>50342</v>
@@ -6020,13 +5936,13 @@
       <c r="C56" s="1">
         <v>44608</v>
       </c>
-      <c r="D56" s="35">
+      <c r="D56" s="29">
         <v>31320</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B57" s="6">
         <v>136034</v>
@@ -6034,124 +5950,124 @@
       <c r="C57" s="6">
         <v>125047</v>
       </c>
-      <c r="D57" s="36">
+      <c r="D57" s="30">
         <v>76151</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B60" s="47" t="s">
+      <c r="A60" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="B60" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C60" s="47" t="s">
+      <c r="C60" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D60" s="48" t="s">
+      <c r="D60" s="37" t="s">
         <v>2</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H60" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="H60" s="9" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D61" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="D61" s="28" t="s">
+        <v>46</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D62" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H62" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="15" t="s">
-        <v>73</v>
-      </c>
       <c r="B63" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D63" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="35" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="29" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="35" t="s">
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="30" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="36" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B67" s="1">
         <v>737400</v>
@@ -6159,13 +6075,13 @@
       <c r="C67" s="1">
         <v>579602</v>
       </c>
-      <c r="D67" s="35">
+      <c r="D67" s="29">
         <v>117106</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B68" s="1">
         <v>56502</v>
@@ -6173,13 +6089,13 @@
       <c r="C68" s="1">
         <v>63444</v>
       </c>
-      <c r="D68" s="35">
+      <c r="D68" s="29">
         <v>57077</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B69" s="1">
         <v>14223</v>
@@ -6187,13 +6103,13 @@
       <c r="C69" s="1">
         <v>16121</v>
       </c>
-      <c r="D69" s="35">
+      <c r="D69" s="29">
         <v>15975</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B70" s="1">
         <v>6487</v>
@@ -6201,13 +6117,13 @@
       <c r="C70" s="1">
         <v>7259</v>
       </c>
-      <c r="D70" s="35">
+      <c r="D70" s="29">
         <v>7246</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B71" s="1">
         <v>1851</v>
@@ -6215,13 +6131,13 @@
       <c r="C71" s="1">
         <v>2364</v>
       </c>
-      <c r="D71" s="35">
+      <c r="D71" s="29">
         <v>2360</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B72" s="1">
         <v>467</v>
@@ -6229,13 +6145,13 @@
       <c r="C72" s="1">
         <v>807</v>
       </c>
-      <c r="D72" s="35">
+      <c r="D72" s="29">
         <v>808</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B73" s="1">
         <v>517228205</v>
@@ -6243,13 +6159,13 @@
       <c r="C73" s="1">
         <v>521225200</v>
       </c>
-      <c r="D73" s="35">
+      <c r="D73" s="29">
         <v>377721297</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B74" s="1">
         <v>298144341</v>
@@ -6257,13 +6173,13 @@
       <c r="C74" s="1">
         <v>360819018</v>
       </c>
-      <c r="D74" s="35">
+      <c r="D74" s="29">
         <v>349639817</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B75" s="1">
         <v>206476335</v>
@@ -6271,13 +6187,13 @@
       <c r="C75" s="1">
         <v>257007562</v>
       </c>
-      <c r="D75" s="35">
+      <c r="D75" s="29">
         <v>255921811</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B76" s="1">
         <v>152966755</v>
@@ -6285,13 +6201,13 @@
       <c r="C76" s="1">
         <v>195456225</v>
       </c>
-      <c r="D76" s="35">
+      <c r="D76" s="29">
         <v>195267831</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B77" s="1">
         <v>82101915</v>
@@ -6299,13 +6215,13 @@
       <c r="C77" s="1">
         <v>121153048</v>
       </c>
-      <c r="D77" s="35">
+      <c r="D77" s="29">
         <v>121080575</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B78" s="1">
         <v>34946525</v>
@@ -6313,13 +6229,13 @@
       <c r="C78" s="1">
         <v>67344512</v>
       </c>
-      <c r="D78" s="35">
+      <c r="D78" s="29">
         <v>67413090</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B79" s="1">
         <v>111318</v>
@@ -6327,13 +6243,13 @@
       <c r="C79" s="1">
         <v>101610</v>
       </c>
-      <c r="D79" s="35">
+      <c r="D79" s="29">
         <v>77394</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B80" s="1">
         <v>200311</v>
@@ -6341,13 +6257,13 @@
       <c r="C80" s="1">
         <v>341906</v>
       </c>
-      <c r="D80" s="35">
+      <c r="D80" s="29">
         <v>342612</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B81" s="1">
         <v>334760411</v>
@@ -6355,27 +6271,27 @@
       <c r="C81" s="1">
         <v>387259079</v>
       </c>
-      <c r="D81" s="35">
+      <c r="D81" s="29">
         <v>364387616</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D82" s="35" t="s">
-        <v>65</v>
+      <c r="D82" s="29" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B83" s="1">
         <v>8321</v>
@@ -6383,13 +6299,13 @@
       <c r="C83" s="1">
         <v>10243</v>
       </c>
-      <c r="D83" s="37">
+      <c r="D83" s="31">
         <v>11703</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B84" s="1">
         <v>2573</v>
@@ -6397,13 +6313,13 @@
       <c r="C84" s="1">
         <v>3293</v>
       </c>
-      <c r="D84" s="37">
+      <c r="D84" s="31">
         <v>4018</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B85" s="1">
         <v>8071</v>
@@ -6411,13 +6327,13 @@
       <c r="C85" s="1">
         <v>7079</v>
       </c>
-      <c r="D85" s="37">
+      <c r="D85" s="31">
         <v>6035</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B86" s="6">
         <v>26700</v>
@@ -6425,879 +6341,415 @@
       <c r="C86" s="6">
         <v>24401</v>
       </c>
-      <c r="D86" s="38">
+      <c r="D86" s="32">
         <v>19848</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B89" s="47" t="s">
+      <c r="A89" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B89" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C89" s="47" t="s">
+      <c r="C89" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D89" s="48" t="s">
+      <c r="D89" s="37" t="s">
         <v>2</v>
       </c>
       <c r="F89" s="7"/>
       <c r="G89" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="C90" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="35" t="s">
-        <v>519</v>
+        <v>494</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="29" t="s">
+        <v>499</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D91" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="C91" s="39" t="s">
-        <v>516</v>
-      </c>
-      <c r="D91" s="35" t="s">
-        <v>520</v>
-      </c>
-      <c r="F91" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="15" t="s">
-        <v>73</v>
-      </c>
       <c r="B92" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="C92" s="40" t="s">
-        <v>517</v>
-      </c>
-      <c r="D92" s="36" t="s">
-        <v>521</v>
+        <v>493</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="D92" s="30" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B93" s="24"/>
-      <c r="C93" s="41"/>
-      <c r="D93" s="35" t="s">
-        <v>522</v>
+        <v>76</v>
+      </c>
+      <c r="B93" s="21"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="29" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B94" s="21"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="29" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B94" s="24"/>
-      <c r="C94" s="41"/>
-      <c r="D94" s="35" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B95" s="25"/>
-      <c r="C95" s="42"/>
-      <c r="D95" s="36" t="s">
-        <v>524</v>
+      <c r="B95" s="22"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="30" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B96">
         <v>1467359</v>
       </c>
-      <c r="C96" s="43">
+      <c r="C96">
         <v>1046544</v>
       </c>
-      <c r="D96" s="45">
+      <c r="D96" s="34">
         <v>109226</v>
       </c>
-      <c r="E96" s="14"/>
+      <c r="E96" s="11"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B97">
         <v>135677</v>
       </c>
-      <c r="C97" s="43">
+      <c r="C97">
         <v>148514</v>
       </c>
-      <c r="D97" s="45">
+      <c r="D97" s="34">
         <v>82756</v>
       </c>
-      <c r="E97" s="14"/>
+      <c r="E97" s="11"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B98">
         <v>25847</v>
       </c>
-      <c r="C98" s="43">
+      <c r="C98">
         <v>36779</v>
       </c>
-      <c r="D98" s="45">
+      <c r="D98" s="34">
         <v>23240</v>
       </c>
-      <c r="E98" s="14"/>
+      <c r="E98" s="11"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B99">
         <v>6929</v>
       </c>
-      <c r="C99" s="43">
+      <c r="C99">
         <v>13476</v>
       </c>
-      <c r="D99" s="45">
+      <c r="D99" s="34">
         <v>8840</v>
       </c>
-      <c r="E99" s="14"/>
+      <c r="E99" s="11"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B100">
         <v>777</v>
       </c>
-      <c r="C100" s="43">
+      <c r="C100">
         <v>1843</v>
       </c>
-      <c r="D100" s="45">
+      <c r="D100" s="34">
         <v>1188</v>
       </c>
-      <c r="E100" s="14"/>
+      <c r="E100" s="11"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B101">
         <v>83</v>
       </c>
-      <c r="C101" s="43">
+      <c r="C101">
         <v>272</v>
       </c>
-      <c r="D101" s="45">
+      <c r="D101" s="34">
         <v>179</v>
       </c>
-      <c r="E101" s="14"/>
+      <c r="E101" s="11"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B102">
         <v>921891678</v>
       </c>
-      <c r="C102" s="43">
+      <c r="C102">
         <v>932059600</v>
       </c>
-      <c r="D102" s="45">
+      <c r="D102" s="34">
         <v>412994018</v>
       </c>
-      <c r="E102" s="14"/>
+      <c r="E102" s="11"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B103">
         <v>484678280</v>
       </c>
-      <c r="C103" s="43">
+      <c r="C103">
         <v>647797137</v>
       </c>
-      <c r="D103" s="45">
+      <c r="D103" s="34">
         <v>392786914</v>
       </c>
-      <c r="E103" s="14"/>
+      <c r="E103" s="11"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B104">
         <v>243626695</v>
       </c>
-      <c r="C104" s="43">
+      <c r="C104">
         <v>401089933</v>
       </c>
-      <c r="D104" s="45">
+      <c r="D104" s="34">
         <v>256951610</v>
       </c>
-      <c r="E104" s="14"/>
+      <c r="E104" s="11"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B105">
         <v>114361365</v>
       </c>
-      <c r="C105" s="43">
+      <c r="C105">
         <v>238653986</v>
       </c>
-      <c r="D105" s="45">
+      <c r="D105" s="34">
         <v>156057182</v>
       </c>
-      <c r="E105" s="14"/>
+      <c r="E105" s="11"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B106">
         <v>27775364</v>
       </c>
-      <c r="C106" s="43">
+      <c r="C106">
         <v>69426837</v>
       </c>
-      <c r="D106" s="45">
+      <c r="D106" s="34">
         <v>44841291</v>
       </c>
-      <c r="E106" s="14"/>
+      <c r="E106" s="11"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B107">
         <v>5225412</v>
       </c>
-      <c r="C107" s="43">
+      <c r="C107">
         <v>17808159</v>
       </c>
-      <c r="D107" s="45">
+      <c r="D107" s="34">
         <v>11881903</v>
       </c>
-      <c r="E107" s="14"/>
+      <c r="E107" s="11"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B108">
         <v>266952</v>
       </c>
-      <c r="C108" s="43">
+      <c r="C108">
         <v>239371</v>
       </c>
-      <c r="D108" s="45">
+      <c r="D108" s="34">
         <v>109220</v>
       </c>
-      <c r="E108" s="14"/>
+      <c r="E108" s="11"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B109">
         <v>100738</v>
       </c>
-      <c r="C109" s="43">
+      <c r="C109">
         <v>192900</v>
       </c>
-      <c r="D109" s="45">
+      <c r="D109" s="34">
         <v>141259</v>
       </c>
-      <c r="E109" s="14"/>
+      <c r="E109" s="11"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B110">
         <v>573258307</v>
       </c>
-      <c r="C110" s="43">
+      <c r="C110">
         <v>711998151</v>
       </c>
-      <c r="D110" s="45">
+      <c r="D110" s="34">
         <v>412991154</v>
       </c>
-      <c r="E110" s="14"/>
+      <c r="E110" s="11"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B111" t="s">
-        <v>511</v>
-      </c>
-      <c r="C111" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="D111" s="45" t="s">
-        <v>518</v>
-      </c>
-      <c r="E111" s="14"/>
+        <v>495</v>
+      </c>
+      <c r="C111" t="s">
+        <v>35</v>
+      </c>
+      <c r="D111" s="34" t="s">
+        <v>498</v>
+      </c>
+      <c r="E111" s="11"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112" s="11">
+        <v>4002</v>
+      </c>
+      <c r="C112">
+        <v>6120</v>
+      </c>
+      <c r="D112" s="34">
+        <v>7181</v>
+      </c>
+      <c r="E112" s="11"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B112" s="14">
-        <v>4002</v>
-      </c>
-      <c r="C112" s="43">
-        <v>6120</v>
-      </c>
-      <c r="D112" s="45">
-        <v>7181</v>
-      </c>
-      <c r="E112" s="14"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="4" t="s">
+      <c r="B113" s="11">
+        <v>1604</v>
+      </c>
+      <c r="C113">
+        <v>2438</v>
+      </c>
+      <c r="D113" s="34">
+        <v>3135</v>
+      </c>
+      <c r="E113" s="11"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B113" s="14">
-        <v>1604</v>
-      </c>
-      <c r="C113" s="43">
-        <v>2438</v>
-      </c>
-      <c r="D113" s="45">
-        <v>3135</v>
-      </c>
-      <c r="E113" s="14"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="4" t="s">
+      <c r="B114" s="11">
+        <v>35478</v>
+      </c>
+      <c r="C114">
+        <v>28613</v>
+      </c>
+      <c r="D114" s="34">
+        <v>14813</v>
+      </c>
+      <c r="E114" s="11"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B114" s="14">
-        <v>35478</v>
-      </c>
-      <c r="C114" s="43">
-        <v>28613</v>
-      </c>
-      <c r="D114" s="45">
-        <v>14813</v>
-      </c>
-      <c r="E114" s="14"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B115" s="30">
+      <c r="B115" s="25">
         <v>92228</v>
       </c>
-      <c r="C115" s="44">
+      <c r="C115" s="33">
         <v>74925</v>
       </c>
-      <c r="D115" s="46">
+      <c r="D115" s="35">
         <v>36553</v>
       </c>
-      <c r="E115" s="14"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="17" t="s">
-        <v>492</v>
-      </c>
-      <c r="B118" s="48" t="s">
-        <v>491</v>
-      </c>
-      <c r="F118" s="7"/>
-      <c r="G118" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B119" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="F119" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G119" s="7" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B120" s="13" t="s">
-        <v>494</v>
-      </c>
-      <c r="F120" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G120" s="32" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B121" s="12" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B122" s="11" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B123" s="11" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B124" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B125" s="11">
-        <v>26592</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B126" s="11">
-        <v>22235</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B127" s="11">
-        <v>3647</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B128" s="11">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B129" s="11">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B130" s="11">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B131" s="11">
-        <v>559218388</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B132" s="11">
-        <v>556241573</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B133" s="11">
-        <v>511411817</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B134" s="11">
-        <v>493028205</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B135" s="11">
-        <v>487488488</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B136" s="11">
-        <v>484998299</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B137" s="11">
-        <v>25728</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B138" s="11">
-        <v>8360586</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B139" s="11">
-        <v>558905956</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B140" s="11" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B141" s="11">
-        <v>1690115</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B142" s="11">
-        <v>796386</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B143" s="11">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B144" s="12">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" s="17" t="s">
-        <v>493</v>
-      </c>
-      <c r="B147" s="48" t="s">
-        <v>491</v>
-      </c>
-      <c r="F147" s="7"/>
-      <c r="G147" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B148" s="11" t="s">
-        <v>501</v>
-      </c>
-      <c r="F148" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G148" s="28" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B149" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="F149" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G149" s="32" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B150" s="12" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B151" s="11" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B152" s="11" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B153" s="12" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B154" s="13">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A155" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B155" s="13">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B156" s="13">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A157" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B157" s="13">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A158" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B158" s="13">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A159" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B159" s="13">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A160" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B160" s="13">
-        <v>354804354</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B161" s="13">
-        <v>354799261</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B162" s="13">
-        <v>354696839</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B163" s="13">
-        <v>354552781</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B164" s="13">
-        <v>354103960</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B165" s="13">
-        <v>353214149</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B166" s="13">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B167" s="13">
-        <v>7252744</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B168" s="13">
-        <v>354803869</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B169" s="13" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B170" s="11">
-        <v>2668382</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B171" s="11">
-        <v>1224880</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B172" s="11">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B173" s="12">
-        <v>90</v>
-      </c>
+      <c r="E115" s="11"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="BQ2:CE174">
-    <sortCondition ref="BT1:BT174"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="BQ2:CE118">
+    <sortCondition ref="BT1:BT118"/>
   </sortState>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Supplementary_paper3/Cynipoidea_genomic_assembly_quality2.xlsx
+++ b/Supplementary_paper3/Cynipoidea_genomic_assembly_quality2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bguinet/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjguin/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F10DDAE-2948-CB4D-AB36-B2F150A9F076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7596A72-3FBD-F544-B975-40F5C56A9A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="3740" windowWidth="34480" windowHeight="17440" xr2:uid="{311261DB-E187-184B-937E-1A4ED063D7FE}"/>
+    <workbookView xWindow="-34200" yWindow="-2240" windowWidth="30700" windowHeight="17180" xr2:uid="{311261DB-E187-184B-937E-1A4ED063D7FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="572">
   <si>
     <t>Megahit</t>
   </si>
@@ -1546,13 +1546,208 @@
   </si>
   <si>
     <t>Trichoplasta</t>
+  </si>
+  <si>
+    <t>Leptopilina heterotoma lr (GCA_015476425.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assembly </t>
+  </si>
+  <si>
+    <t>4.4%</t>
+  </si>
+  <si>
+    <t>11.06x</t>
+  </si>
+  <si>
+    <t>95.2%</t>
+  </si>
+  <si>
+    <t>11.53x</t>
+  </si>
+  <si>
+    <t>0.4%</t>
+  </si>
+  <si>
+    <t>99.6%</t>
+  </si>
+  <si>
+    <t>28.28</t>
+  </si>
+  <si>
+    <t>Leptopilina boulardi lr (GCA_019393585.1)</t>
+  </si>
+  <si>
+    <t>6.9%</t>
+  </si>
+  <si>
+    <t>60.46x</t>
+  </si>
+  <si>
+    <t>91.4%</t>
+  </si>
+  <si>
+    <t>34.93x</t>
+  </si>
+  <si>
+    <t>1.7%</t>
+  </si>
+  <si>
+    <t>0.6%</t>
+  </si>
+  <si>
+    <t>99.2%</t>
+  </si>
+  <si>
+    <t>0.2%</t>
+  </si>
+  <si>
+    <t>27.99</t>
+  </si>
+  <si>
+    <t>Synergus umbraculus (GCA_900474325.1)</t>
+  </si>
+  <si>
+    <t>89.4%</t>
+  </si>
+  <si>
+    <t>3.6%</t>
+  </si>
+  <si>
+    <t>0.7%</t>
+  </si>
+  <si>
+    <t>1.3%</t>
+  </si>
+  <si>
+    <t>Synergus japonicus (GCA_900474275.1)</t>
+  </si>
+  <si>
+    <t>6.7%</t>
+  </si>
+  <si>
+    <t>90.2%</t>
+  </si>
+  <si>
+    <t>3.1%</t>
+  </si>
+  <si>
+    <t>97.8%</t>
+  </si>
+  <si>
+    <t>1.5%</t>
+  </si>
+  <si>
+    <t>Ganaspis sp (GCA_011057455.1)</t>
+  </si>
+  <si>
+    <t>24.8%</t>
+  </si>
+  <si>
+    <t>61.5%</t>
+  </si>
+  <si>
+    <t>13.7%</t>
+  </si>
+  <si>
+    <t>4.7%</t>
+  </si>
+  <si>
+    <t>83.2%</t>
+  </si>
+  <si>
+    <t>12.1%</t>
+  </si>
+  <si>
+    <t>Ganaspis brasiliensis (GCA_009823575.1)</t>
+  </si>
+  <si>
+    <t>36.3%</t>
+  </si>
+  <si>
+    <t>42.8%</t>
+  </si>
+  <si>
+    <t>20.9%</t>
+  </si>
+  <si>
+    <t>70.7%</t>
+  </si>
+  <si>
+    <t>22.3%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCBI submission </t>
+  </si>
+  <si>
+    <t>Biosample</t>
+  </si>
+  <si>
+    <t>SAMN34393992</t>
+  </si>
+  <si>
+    <t>SRA</t>
+  </si>
+  <si>
+    <t>SRR25248138</t>
+  </si>
+  <si>
+    <t>BioProject</t>
+  </si>
+  <si>
+    <t>PRJNA831620</t>
+  </si>
+  <si>
+    <t>Genome accession</t>
+  </si>
+  <si>
+    <t>JAVSCW000000000</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>This paper</t>
+  </si>
+  <si>
+    <t>SAMN34393989</t>
+  </si>
+  <si>
+    <t>SRR25248141</t>
+  </si>
+  <si>
+    <t>JAVSCT000000000</t>
+  </si>
+  <si>
+    <t>SAMN34393990</t>
+  </si>
+  <si>
+    <t>SRR25248140</t>
+  </si>
+  <si>
+    <t>JAVSCU000000000</t>
+  </si>
+  <si>
+    <t>SAMN34393991</t>
+  </si>
+  <si>
+    <t>SRR25248139</t>
+  </si>
+  <si>
+    <t>JAVSCV000000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other genomes used in this paper : </t>
+  </si>
+  <si>
+    <t>Genomes sequenced for this paper :</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1651,6 +1846,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Menlo"/>
       <family val="2"/>
     </font>
@@ -1783,7 +1985,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1848,9 +2050,33 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1867,7 +2093,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2163,19 +2389,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28264608-AAD1-E442-A474-207EAD07C638}">
-  <dimension ref="A1:CF115"/>
+  <dimension ref="A1:CF296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="J109" sqref="J109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="1" max="1" width="46" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" customWidth="1"/>
     <col min="31" max="31" width="27" customWidth="1"/>
     <col min="32" max="32" width="27.6640625" customWidth="1"/>
     <col min="33" max="33" width="13.5" customWidth="1"/>
@@ -2191,173 +2418,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="2" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="9" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="AE1" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF1" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH1" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="AI1" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="AJ1" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="AK1" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>186</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS1" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>230</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>232</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>233</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>234</v>
-      </c>
-      <c r="BC1" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>236</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>237</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>238</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>239</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>240</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>241</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>242</v>
-      </c>
-      <c r="BQ1" s="15"/>
-      <c r="BR1" s="15"/>
-      <c r="BS1" s="15"/>
-      <c r="BT1" s="15"/>
-    </row>
-    <row r="2" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>486</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="46" t="s">
+        <v>550</v>
+      </c>
       <c r="L2" s="11"/>
       <c r="O2" s="11"/>
       <c r="AE2" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF2" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG2" t="s">
         <v>184</v>
       </c>
       <c r="AH2" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AI2" s="20" t="s">
         <v>190</v>
       </c>
       <c r="AJ2" s="20" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AK2" s="20" t="s">
         <v>186</v>
       </c>
       <c r="AM2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AN2" t="s">
         <v>186</v>
       </c>
       <c r="AR2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AS2" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AT2" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="AU2" t="s">
         <v>227</v>
@@ -2384,68 +2506,72 @@
         <v>234</v>
       </c>
       <c r="BC2" s="23" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="BD2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="BE2" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="BF2" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="BG2" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="BH2" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="BI2" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="BJ2" t="s">
-        <v>251</v>
-      </c>
-      <c r="BQ2" s="16"/>
-      <c r="BT2" s="26"/>
-      <c r="BU2" s="17"/>
-      <c r="CF2" s="11"/>
+        <v>242</v>
+      </c>
+      <c r="BQ2" s="15"/>
+      <c r="BR2" s="15"/>
+      <c r="BS2" s="15"/>
+      <c r="BT2" s="15"/>
     </row>
     <row r="3" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.28999999999999998</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+        <v>62</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>551</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>567</v>
+      </c>
       <c r="L3" s="11"/>
       <c r="O3" s="11"/>
       <c r="AE3" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF3" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AG3" t="s">
         <v>184</v>
       </c>
       <c r="AH3" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AI3" s="20" t="s">
         <v>190</v>
@@ -2457,19 +2583,19 @@
         <v>186</v>
       </c>
       <c r="AM3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AN3" t="s">
         <v>186</v>
       </c>
       <c r="AR3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AS3" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AT3" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="AU3" t="s">
         <v>227</v>
@@ -2496,63 +2622,72 @@
         <v>234</v>
       </c>
       <c r="BC3" s="23" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="BD3" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="BE3" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="BF3" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="BG3" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="BH3" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="BI3" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="BJ3" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="BQ3" s="16"/>
       <c r="BT3" s="26"/>
       <c r="BU3" s="17"/>
-      <c r="CA3" s="18"/>
       <c r="CF3" s="11"/>
     </row>
     <row r="4" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
+      <c r="A4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>485</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="47" t="s">
+        <v>553</v>
+      </c>
+      <c r="K4" s="48" t="s">
+        <v>568</v>
+      </c>
       <c r="L4" s="11"/>
       <c r="O4" s="11"/>
       <c r="AE4" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AF4" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG4" t="s">
         <v>184</v>
       </c>
       <c r="AH4" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AI4" s="20" t="s">
         <v>190</v>
@@ -2564,19 +2699,19 @@
         <v>186</v>
       </c>
       <c r="AM4" t="s">
-        <v>194</v>
-      </c>
-      <c r="AN4" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="AN4" t="s">
         <v>186</v>
       </c>
       <c r="AR4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AS4" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AT4" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="AU4" t="s">
         <v>227</v>
@@ -2602,59 +2737,68 @@
       <c r="BB4" t="s">
         <v>234</v>
       </c>
-      <c r="BC4" t="s">
-        <v>262</v>
+      <c r="BC4" s="23" t="s">
+        <v>253</v>
       </c>
       <c r="BD4" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="BE4" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="BF4" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="BG4" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="BH4" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="BI4" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="BJ4" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="BQ4" s="16"/>
       <c r="BT4" s="26"/>
       <c r="BU4" s="17"/>
+      <c r="CA4" s="18"/>
       <c r="CF4" s="11"/>
     </row>
     <row r="5" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="29" t="s">
-        <v>489</v>
-      </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
+      <c r="A5" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="47" t="s">
+        <v>555</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>556</v>
+      </c>
       <c r="L5" s="11"/>
       <c r="O5" s="11"/>
       <c r="AE5" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF5" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG5" t="s">
         <v>184</v>
       </c>
       <c r="AH5" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI5" s="20" t="s">
         <v>190</v>
@@ -2665,20 +2809,20 @@
       <c r="AK5" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="AM5" s="18" t="s">
-        <v>195</v>
+      <c r="AM5" t="s">
+        <v>194</v>
       </c>
       <c r="AN5" s="18" t="s">
         <v>186</v>
       </c>
       <c r="AR5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AS5" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AT5" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="AU5" t="s">
         <v>227</v>
@@ -2705,28 +2849,28 @@
         <v>234</v>
       </c>
       <c r="BC5" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="BD5" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="BE5" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="BF5" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="BG5" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="BH5" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="BI5" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="BJ5" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="BQ5" s="16"/>
       <c r="BT5" s="26"/>
@@ -2735,28 +2879,32 @@
     </row>
     <row r="6" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
+        <v>489</v>
+      </c>
+      <c r="J6" s="47" t="s">
+        <v>557</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>569</v>
+      </c>
       <c r="L6" s="11"/>
       <c r="O6" s="11"/>
       <c r="AE6" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF6" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AG6" t="s">
         <v>184</v>
       </c>
       <c r="AH6" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AI6" s="20" t="s">
         <v>190</v>
@@ -2767,20 +2915,20 @@
       <c r="AK6" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="AM6" t="s">
-        <v>196</v>
+      <c r="AM6" s="18" t="s">
+        <v>195</v>
       </c>
       <c r="AN6" s="18" t="s">
         <v>186</v>
       </c>
       <c r="AR6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AS6" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AT6" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="AU6" t="s">
         <v>227</v>
@@ -2807,28 +2955,28 @@
         <v>234</v>
       </c>
       <c r="BC6" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="BD6" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="BE6" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="BF6" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="BG6" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="BH6" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="BI6" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="BJ6" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="BQ6" s="16"/>
       <c r="BT6" s="26"/>
@@ -2836,29 +2984,33 @@
       <c r="CF6" s="11"/>
     </row>
     <row r="7" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
+      <c r="A7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="J7" s="47" t="s">
+        <v>559</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>560</v>
+      </c>
       <c r="L7" s="11"/>
       <c r="O7" s="11"/>
       <c r="AE7" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AF7" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s">
         <v>184</v>
       </c>
       <c r="AH7" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AI7" s="20" t="s">
         <v>190</v>
@@ -2870,19 +3022,19 @@
         <v>186</v>
       </c>
       <c r="AM7" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN7" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN7" s="18" t="s">
         <v>186</v>
       </c>
       <c r="AR7" t="s">
-        <v>87</v>
-      </c>
-      <c r="AS7" s="24" t="s">
-        <v>122</v>
+        <v>86</v>
+      </c>
+      <c r="AS7" s="23" t="s">
+        <v>121</v>
       </c>
       <c r="AT7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="AU7" t="s">
         <v>227</v>
@@ -2909,28 +3061,28 @@
         <v>234</v>
       </c>
       <c r="BC7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="BD7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="BE7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="BF7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="BG7" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="BH7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="BI7" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="BJ7" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="BQ7" s="16"/>
       <c r="BT7" s="26"/>
@@ -2938,33 +3090,29 @@
       <c r="CF7" s="11"/>
     </row>
     <row r="8" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1">
-        <v>827149</v>
-      </c>
-      <c r="C8" s="1">
-        <v>614120</v>
-      </c>
-      <c r="D8" s="29">
-        <v>126446</v>
+      <c r="A8" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="30" t="s">
+        <v>488</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="O8" s="11"/>
       <c r="AE8" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF8" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AG8" t="s">
         <v>184</v>
       </c>
       <c r="AH8" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AI8" s="20" t="s">
         <v>190</v>
@@ -2976,19 +3124,19 @@
         <v>186</v>
       </c>
       <c r="AM8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AN8" t="s">
         <v>186</v>
       </c>
       <c r="AR8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AS8" s="23" t="s">
-        <v>123</v>
+        <v>87</v>
+      </c>
+      <c r="AS8" s="24" t="s">
+        <v>122</v>
       </c>
       <c r="AT8" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="AU8" t="s">
         <v>227</v>
@@ -3015,46 +3163,62 @@
         <v>234</v>
       </c>
       <c r="BC8" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="BD8" t="s">
-        <v>299</v>
+        <v>290</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>291</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>292</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>293</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>294</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>295</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>296</v>
       </c>
       <c r="BQ8" s="16"/>
       <c r="BT8" s="26"/>
       <c r="BU8" s="17"/>
-      <c r="BZ8" s="18"/>
-      <c r="CA8" s="18"/>
       <c r="CF8" s="11"/>
     </row>
     <row r="9" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
-        <v>79758</v>
+        <v>827149</v>
       </c>
       <c r="C9" s="1">
-        <v>81548</v>
+        <v>614120</v>
       </c>
       <c r="D9" s="29">
-        <v>69238</v>
+        <v>126446</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="O9" s="11"/>
       <c r="AE9" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AF9" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG9" t="s">
         <v>184</v>
       </c>
       <c r="AH9" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AI9" s="20" t="s">
         <v>190</v>
@@ -3066,19 +3230,19 @@
         <v>186</v>
       </c>
       <c r="AM9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AN9" t="s">
         <v>186</v>
       </c>
       <c r="AR9" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS9" s="24" t="s">
-        <v>124</v>
+        <v>88</v>
+      </c>
+      <c r="AS9" s="23" t="s">
+        <v>123</v>
       </c>
       <c r="AT9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AU9" t="s">
         <v>227</v>
@@ -3105,50 +3269,46 @@
         <v>234</v>
       </c>
       <c r="BC9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="BD9" t="s">
-        <v>302</v>
-      </c>
-      <c r="BE9" t="s">
-        <v>303</v>
-      </c>
-      <c r="BF9" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="BQ9" s="16"/>
       <c r="BT9" s="26"/>
       <c r="BU9" s="17"/>
+      <c r="BZ9" s="18"/>
+      <c r="CA9" s="18"/>
       <c r="CF9" s="11"/>
     </row>
     <row r="10" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
-        <v>19744</v>
+        <v>79758</v>
       </c>
       <c r="C10" s="1">
-        <v>22023</v>
+        <v>81548</v>
       </c>
       <c r="D10" s="29">
-        <v>21875</v>
+        <v>69238</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="O10" s="11"/>
       <c r="AE10" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AF10" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG10" t="s">
         <v>184</v>
       </c>
       <c r="AH10" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AI10" s="20" t="s">
         <v>190</v>
@@ -3160,19 +3320,19 @@
         <v>186</v>
       </c>
       <c r="AM10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AN10" t="s">
         <v>186</v>
       </c>
       <c r="AR10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AS10" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AT10" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="AU10" t="s">
         <v>227</v>
@@ -3199,16 +3359,16 @@
         <v>234</v>
       </c>
       <c r="BC10" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="BD10" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="BE10" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="BF10" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="BQ10" s="16"/>
       <c r="BT10" s="26"/>
@@ -3217,56 +3377,56 @@
     </row>
     <row r="11" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1">
-        <v>6752</v>
+        <v>19744</v>
       </c>
       <c r="C11" s="1">
-        <v>9788</v>
+        <v>22023</v>
       </c>
       <c r="D11" s="29">
-        <v>9777</v>
+        <v>21875</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="O11" s="11"/>
       <c r="AE11" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF11" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AG11" t="s">
         <v>184</v>
       </c>
       <c r="AH11" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AI11" s="20" t="s">
         <v>190</v>
       </c>
       <c r="AJ11" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AK11" s="20" t="s">
         <v>186</v>
       </c>
       <c r="AM11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AN11" t="s">
         <v>186</v>
       </c>
       <c r="AR11" t="s">
-        <v>91</v>
-      </c>
-      <c r="AS11" s="23" t="s">
-        <v>126</v>
+        <v>90</v>
+      </c>
+      <c r="AS11" s="24" t="s">
+        <v>125</v>
       </c>
       <c r="AT11" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AU11" t="s">
         <v>227</v>
@@ -3293,74 +3453,74 @@
         <v>234</v>
       </c>
       <c r="BC11" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="BD11" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="BE11" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="BF11" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="BQ11" s="16"/>
       <c r="BT11" s="26"/>
-      <c r="BU11" s="19"/>
+      <c r="BU11" s="17"/>
       <c r="CF11" s="11"/>
     </row>
     <row r="12" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1">
-        <v>980</v>
+        <v>6752</v>
       </c>
       <c r="C12" s="1">
-        <v>2166</v>
+        <v>9788</v>
       </c>
       <c r="D12" s="29">
-        <v>2172</v>
+        <v>9777</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="O12" s="11"/>
       <c r="AE12" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF12" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG12" t="s">
         <v>184</v>
       </c>
       <c r="AH12" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AI12" s="20" t="s">
         <v>190</v>
       </c>
       <c r="AJ12" s="20" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AK12" s="20" t="s">
         <v>186</v>
       </c>
       <c r="AM12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AN12" t="s">
         <v>186</v>
       </c>
       <c r="AR12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AS12" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AT12" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="AU12" t="s">
         <v>227</v>
@@ -3387,75 +3547,74 @@
         <v>234</v>
       </c>
       <c r="BC12" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="BD12" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="BE12" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="BF12" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="BQ12" s="16"/>
       <c r="BT12" s="26"/>
       <c r="BU12" s="19"/>
-      <c r="BZ12" s="18"/>
-      <c r="CA12" s="18"/>
       <c r="CF12" s="11"/>
     </row>
     <row r="13" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1">
-        <v>112</v>
+        <v>980</v>
       </c>
       <c r="C13" s="1">
-        <v>507</v>
+        <v>2166</v>
       </c>
       <c r="D13" s="29">
-        <v>509</v>
+        <v>2172</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
       <c r="O13" s="11"/>
       <c r="AE13" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF13" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AG13" t="s">
         <v>184</v>
       </c>
       <c r="AH13" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AI13" s="20" t="s">
         <v>190</v>
       </c>
       <c r="AJ13" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AK13" s="20" t="s">
         <v>186</v>
       </c>
       <c r="AM13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN13" t="s">
         <v>186</v>
       </c>
       <c r="AR13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AS13" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AT13" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="AU13" t="s">
         <v>227</v>
@@ -3482,50 +3641,51 @@
         <v>234</v>
       </c>
       <c r="BC13" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="BD13" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="BE13" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="BF13" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="BQ13" s="16"/>
       <c r="BT13" s="26"/>
       <c r="BU13" s="19"/>
+      <c r="BZ13" s="18"/>
       <c r="CA13" s="18"/>
       <c r="CF13" s="11"/>
     </row>
     <row r="14" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>12</v>
+      <c r="A14" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B14" s="1">
-        <v>585245289</v>
+        <v>112</v>
       </c>
       <c r="C14" s="1">
-        <v>589929523</v>
+        <v>507</v>
       </c>
       <c r="D14" s="29">
-        <v>430577537</v>
+        <v>509</v>
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="O14" s="11"/>
       <c r="AE14" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF14" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AG14" t="s">
         <v>184</v>
       </c>
       <c r="AH14" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AI14" s="20" t="s">
         <v>190</v>
@@ -3537,19 +3697,19 @@
         <v>186</v>
       </c>
       <c r="AM14" t="s">
-        <v>204</v>
-      </c>
-      <c r="AN14" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="AN14" t="s">
         <v>186</v>
       </c>
       <c r="AR14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AS14" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AT14" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="AU14" t="s">
         <v>227</v>
@@ -3576,16 +3736,16 @@
         <v>234</v>
       </c>
       <c r="BC14" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="BD14" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="BE14" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="BF14" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="BQ14" s="16"/>
       <c r="BT14" s="26"/>
@@ -3595,31 +3755,31 @@
     </row>
     <row r="15" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1">
-        <v>343475569</v>
+        <v>585245289</v>
       </c>
       <c r="C15" s="1">
-        <v>422061759</v>
+        <v>589929523</v>
       </c>
       <c r="D15" s="29">
-        <v>402488421</v>
+        <v>430577537</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="O15" s="11"/>
       <c r="AE15" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF15" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AG15" t="s">
         <v>184</v>
       </c>
       <c r="AH15" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI15" s="20" t="s">
         <v>190</v>
@@ -3630,20 +3790,20 @@
       <c r="AK15" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="AM15" s="18" t="s">
-        <v>205</v>
+      <c r="AM15" t="s">
+        <v>204</v>
       </c>
       <c r="AN15" s="18" t="s">
         <v>186</v>
       </c>
       <c r="AR15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AS15" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AT15" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="AU15" t="s">
         <v>227</v>
@@ -3670,51 +3830,50 @@
         <v>234</v>
       </c>
       <c r="BC15" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="BD15" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="BE15" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="BF15" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="BQ15" s="16"/>
       <c r="BT15" s="26"/>
       <c r="BU15" s="19"/>
-      <c r="BZ15" s="18"/>
       <c r="CA15" s="18"/>
       <c r="CF15" s="11"/>
     </row>
     <row r="16" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1">
-        <v>209424943</v>
+        <v>343475569</v>
       </c>
       <c r="C16" s="1">
-        <v>293847064</v>
+        <v>422061759</v>
       </c>
       <c r="D16" s="29">
-        <v>292750284</v>
+        <v>402488421</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="O16" s="11"/>
       <c r="AE16" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AF16" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AG16" t="s">
         <v>184</v>
       </c>
       <c r="AH16" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI16" s="20" t="s">
         <v>190</v>
@@ -3725,20 +3884,20 @@
       <c r="AK16" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="AM16" t="s">
-        <v>206</v>
-      </c>
-      <c r="AN16" t="s">
+      <c r="AM16" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="AN16" s="18" t="s">
         <v>186</v>
       </c>
       <c r="AR16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AS16" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AT16" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AU16" t="s">
         <v>227</v>
@@ -3765,62 +3924,51 @@
         <v>234</v>
       </c>
       <c r="BC16" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="BD16" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="BE16" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="BF16" t="s">
-        <v>339</v>
-      </c>
-      <c r="BG16" t="s">
-        <v>340</v>
-      </c>
-      <c r="BH16" t="s">
-        <v>341</v>
-      </c>
-      <c r="BI16" t="s">
-        <v>342</v>
-      </c>
-      <c r="BJ16" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="BQ16" s="16"/>
       <c r="BT16" s="26"/>
       <c r="BU16" s="19"/>
+      <c r="BZ16" s="18"/>
       <c r="CA16" s="18"/>
       <c r="CF16" s="11"/>
     </row>
     <row r="17" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="1">
-        <v>119639738</v>
+        <v>209424943</v>
       </c>
       <c r="C17" s="1">
-        <v>207866598</v>
+        <v>293847064</v>
       </c>
       <c r="D17" s="29">
-        <v>207689941</v>
+        <v>292750284</v>
       </c>
       <c r="J17" s="11"/>
-      <c r="L17" s="11"/>
+      <c r="K17" s="11"/>
       <c r="O17" s="11"/>
       <c r="AE17" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF17" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG17" t="s">
         <v>184</v>
       </c>
       <c r="AH17" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AI17" s="20" t="s">
         <v>190</v>
@@ -3831,20 +3979,20 @@
       <c r="AK17" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="AM17" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="AN17" s="18" t="s">
+      <c r="AM17" t="s">
+        <v>206</v>
+      </c>
+      <c r="AN17" t="s">
         <v>186</v>
       </c>
       <c r="AR17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AS17" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AT17" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="AU17" t="s">
         <v>227</v>
@@ -3871,80 +4019,86 @@
         <v>234</v>
       </c>
       <c r="BC17" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="BD17" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="BE17" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="BF17" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="BG17" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="BH17" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="BI17" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="BJ17" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="BQ17" s="16"/>
       <c r="BT17" s="26"/>
       <c r="BU17" s="19"/>
+      <c r="CA17" s="18"/>
       <c r="CF17" s="11"/>
     </row>
     <row r="18" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1">
-        <v>36133742</v>
+        <v>119639738</v>
       </c>
       <c r="C18" s="1">
-        <v>93170968</v>
+        <v>207866598</v>
       </c>
       <c r="D18" s="29">
-        <v>93361186</v>
+        <v>207689941</v>
       </c>
       <c r="J18" s="11"/>
       <c r="L18" s="11"/>
       <c r="O18" s="11"/>
       <c r="AE18" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF18" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG18" t="s">
         <v>184</v>
       </c>
       <c r="AH18" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AI18" s="20" t="s">
         <v>190</v>
       </c>
       <c r="AJ18" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="AK18" s="20"/>
-      <c r="AM18" t="s">
-        <v>208</v>
+        <v>187</v>
+      </c>
+      <c r="AK18" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM18" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="AN18" s="18" t="s">
+        <v>186</v>
       </c>
       <c r="AR18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AS18" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AT18" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="AU18" t="s">
         <v>227</v>
@@ -3971,86 +4125,80 @@
         <v>234</v>
       </c>
       <c r="BC18" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="BD18" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="BE18" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="BF18" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="BG18" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="BH18" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="BI18" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="BJ18" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="BQ18" s="16"/>
       <c r="BT18" s="26"/>
       <c r="BU18" s="19"/>
-      <c r="CA18" s="18"/>
       <c r="CF18" s="11"/>
     </row>
     <row r="19" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="1">
-        <v>7600771</v>
+        <v>36133742</v>
       </c>
       <c r="C19" s="1">
-        <v>37260573</v>
+        <v>93170968</v>
       </c>
       <c r="D19" s="29">
-        <v>37385368</v>
+        <v>93361186</v>
       </c>
       <c r="J19" s="11"/>
       <c r="L19" s="11"/>
       <c r="O19" s="11"/>
       <c r="AE19" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF19" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AG19" t="s">
         <v>184</v>
       </c>
       <c r="AH19" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AI19" s="20" t="s">
         <v>190</v>
       </c>
       <c r="AJ19" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="AK19" s="20" t="s">
-        <v>186</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="AK19" s="20"/>
       <c r="AM19" t="s">
-        <v>209</v>
-      </c>
-      <c r="AN19" s="18" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="AR19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AS19" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AT19" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="AU19" t="s">
         <v>227</v>
@@ -4077,61 +4225,62 @@
         <v>234</v>
       </c>
       <c r="BC19" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="BD19" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="BE19" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="BF19" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="BG19" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="BH19" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="BI19" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="BJ19" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="BQ19" s="16"/>
       <c r="BT19" s="26"/>
       <c r="BU19" s="19"/>
+      <c r="CA19" s="18"/>
       <c r="CF19" s="11"/>
     </row>
     <row r="20" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1">
-        <v>147019</v>
+        <v>7600771</v>
       </c>
       <c r="C20" s="1">
-        <v>132460</v>
+        <v>37260573</v>
       </c>
       <c r="D20" s="29">
-        <v>92476</v>
+        <v>37385368</v>
       </c>
       <c r="J20" s="11"/>
       <c r="L20" s="11"/>
       <c r="O20" s="11"/>
       <c r="AE20" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AF20" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AG20" t="s">
         <v>184</v>
       </c>
       <c r="AH20" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AI20" s="20" t="s">
         <v>190</v>
@@ -4143,19 +4292,19 @@
         <v>186</v>
       </c>
       <c r="AM20" t="s">
-        <v>210</v>
-      </c>
-      <c r="AN20" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN20" s="18" t="s">
         <v>186</v>
       </c>
       <c r="AR20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AS20" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AT20" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="AU20" t="s">
         <v>227</v>
@@ -4182,61 +4331,61 @@
         <v>234</v>
       </c>
       <c r="BC20" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="BD20" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="BE20" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="BF20" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="BG20" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="BH20" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="BI20" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="BJ20" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="BQ20" s="16"/>
       <c r="BT20" s="26"/>
       <c r="BU20" s="19"/>
-      <c r="BZ20" s="18"/>
-      <c r="CA20" s="18"/>
       <c r="CF20" s="11"/>
     </row>
     <row r="21" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="1">
-        <v>140935</v>
+        <v>147019</v>
       </c>
       <c r="C21" s="1">
-        <v>239801</v>
+        <v>132460</v>
       </c>
       <c r="D21" s="29">
-        <v>239723</v>
-      </c>
+        <v>92476</v>
+      </c>
+      <c r="J21" s="11"/>
+      <c r="L21" s="11"/>
       <c r="O21" s="11"/>
       <c r="AE21" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF21" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AG21" t="s">
         <v>184</v>
       </c>
       <c r="AH21" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AI21" s="20" t="s">
         <v>190</v>
@@ -4248,19 +4397,19 @@
         <v>186</v>
       </c>
       <c r="AM21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AN21" t="s">
         <v>186</v>
       </c>
       <c r="AR21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS21" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AT21" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="AU21" t="s">
         <v>227</v>
@@ -4287,83 +4436,85 @@
         <v>234</v>
       </c>
       <c r="BC21" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="BD21" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="BE21" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="BF21" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="BG21" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="BH21" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="BI21" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="BJ21" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="BQ21" s="16"/>
       <c r="BT21" s="26"/>
       <c r="BU21" s="19"/>
+      <c r="BZ21" s="18"/>
       <c r="CA21" s="18"/>
       <c r="CF21" s="11"/>
     </row>
     <row r="22" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1">
-        <v>388910790</v>
+        <v>140935</v>
       </c>
       <c r="C22" s="1">
-        <v>458104049</v>
+        <v>239801</v>
       </c>
       <c r="D22" s="29">
-        <v>419564506</v>
-      </c>
+        <v>239723</v>
+      </c>
+      <c r="O22" s="11"/>
       <c r="AE22" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF22" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG22" t="s">
         <v>184</v>
       </c>
       <c r="AH22" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AI22" s="20" t="s">
         <v>190</v>
       </c>
       <c r="AJ22" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AK22" s="20" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AM22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AN22" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AR22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AS22" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AT22" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="AU22" t="s">
         <v>227</v>
@@ -4390,28 +4541,28 @@
         <v>234</v>
       </c>
       <c r="BC22" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="BD22" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="BE22" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="BF22" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="BG22" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="BH22" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="BI22" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="BJ22" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="BQ22" s="16"/>
       <c r="BT22" s="26"/>
@@ -4421,22 +4572,22 @@
     </row>
     <row r="23" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>490</v>
+        <v>30</v>
+      </c>
+      <c r="B23" s="1">
+        <v>388910790</v>
+      </c>
+      <c r="C23" s="1">
+        <v>458104049</v>
+      </c>
+      <c r="D23" s="29">
+        <v>419564506</v>
       </c>
       <c r="AE23" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF23" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG23" t="s">
         <v>184</v>
@@ -4448,25 +4599,25 @@
         <v>190</v>
       </c>
       <c r="AJ23" s="20" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AK23" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM23" s="18" t="s">
-        <v>213</v>
+        <v>189</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>212</v>
       </c>
       <c r="AN23" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AR23" t="s">
-        <v>104</v>
-      </c>
-      <c r="AS23" s="24" t="s">
-        <v>139</v>
+        <v>103</v>
+      </c>
+      <c r="AS23" s="23" t="s">
+        <v>138</v>
       </c>
       <c r="AT23" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="AU23" t="s">
         <v>227</v>
@@ -4493,58 +4644,59 @@
         <v>234</v>
       </c>
       <c r="BC23" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="BD23" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="BE23" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="BF23" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="BG23" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="BH23" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="BI23" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="BJ23" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="BQ23" s="16"/>
       <c r="BT23" s="26"/>
       <c r="BU23" s="19"/>
+      <c r="CA23" s="18"/>
       <c r="CF23" s="11"/>
     </row>
     <row r="24" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="1">
-        <v>5607</v>
-      </c>
-      <c r="C24" s="1">
-        <v>8530</v>
-      </c>
-      <c r="D24" s="29">
-        <v>9838</v>
+        <v>13</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>490</v>
       </c>
       <c r="AE24" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF24" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AG24" t="s">
         <v>184</v>
       </c>
       <c r="AH24" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AI24" s="20" t="s">
         <v>190</v>
@@ -4555,20 +4707,20 @@
       <c r="AK24" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="AM24" t="s">
-        <v>214</v>
+      <c r="AM24" s="18" t="s">
+        <v>213</v>
       </c>
       <c r="AN24" t="s">
         <v>186</v>
       </c>
       <c r="AR24" t="s">
-        <v>105</v>
-      </c>
-      <c r="AS24" s="23" t="s">
-        <v>140</v>
+        <v>104</v>
+      </c>
+      <c r="AS24" s="24" t="s">
+        <v>139</v>
       </c>
       <c r="AT24" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="AU24" t="s">
         <v>227</v>
@@ -4595,72 +4747,82 @@
         <v>234</v>
       </c>
       <c r="BC24" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="BD24" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="BE24" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="BF24" t="s">
-        <v>411</v>
+        <v>402</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>403</v>
+      </c>
+      <c r="BH24" t="s">
+        <v>404</v>
+      </c>
+      <c r="BI24" t="s">
+        <v>405</v>
+      </c>
+      <c r="BJ24" t="s">
+        <v>406</v>
       </c>
       <c r="BQ24" s="16"/>
       <c r="BT24" s="26"/>
       <c r="BU24" s="19"/>
-      <c r="BZ24" s="18"/>
-      <c r="CA24" s="18"/>
       <c r="CF24" s="11"/>
     </row>
     <row r="25" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="1">
-        <v>2191</v>
+        <v>5607</v>
       </c>
       <c r="C25" s="1">
-        <v>2963</v>
+        <v>8530</v>
       </c>
       <c r="D25" s="29">
-        <v>4023</v>
+        <v>9838</v>
       </c>
       <c r="AE25" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF25" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AG25" t="s">
         <v>184</v>
       </c>
       <c r="AH25" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AI25" s="20" t="s">
         <v>190</v>
       </c>
       <c r="AJ25" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AK25" s="20" t="s">
         <v>186</v>
       </c>
       <c r="AM25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AN25" t="s">
         <v>186</v>
       </c>
       <c r="AR25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AS25" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AT25" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="AU25" t="s">
         <v>227</v>
@@ -4687,82 +4849,72 @@
         <v>234</v>
       </c>
       <c r="BC25" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="BD25" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="BE25" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="BF25" t="s">
-        <v>416</v>
-      </c>
-      <c r="BG25" t="s">
-        <v>417</v>
-      </c>
-      <c r="BH25" t="s">
-        <v>418</v>
-      </c>
-      <c r="BI25" t="s">
-        <v>419</v>
-      </c>
-      <c r="BJ25" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="BQ25" s="16"/>
       <c r="BT25" s="26"/>
       <c r="BU25" s="19"/>
+      <c r="BZ25" s="18"/>
+      <c r="CA25" s="18"/>
       <c r="CF25" s="11"/>
     </row>
     <row r="26" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" s="1">
-        <v>16917</v>
+        <v>2191</v>
       </c>
       <c r="C26" s="1">
-        <v>12082</v>
+        <v>2963</v>
       </c>
       <c r="D26" s="29">
-        <v>9988</v>
+        <v>4023</v>
       </c>
       <c r="AE26" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AF26" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AG26" t="s">
         <v>184</v>
       </c>
       <c r="AH26" s="20" t="s">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="AI26" s="20" t="s">
         <v>190</v>
       </c>
       <c r="AJ26" s="20" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AK26" s="20" t="s">
         <v>186</v>
       </c>
       <c r="AM26" t="s">
-        <v>216</v>
-      </c>
-      <c r="AN26" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN26" t="s">
         <v>186</v>
       </c>
       <c r="AR26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AS26" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AT26" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="AU26" t="s">
         <v>227</v>
@@ -4789,28 +4941,28 @@
         <v>234</v>
       </c>
       <c r="BC26" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="BD26" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="BE26" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="BF26" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="BG26" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="BH26" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="BI26" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="BJ26" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="BQ26" s="16"/>
       <c r="BT26" s="26"/>
@@ -4818,29 +4970,29 @@
       <c r="CF26" s="11"/>
     </row>
     <row r="27" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="6">
-        <v>44537</v>
-      </c>
-      <c r="C27" s="6">
-        <v>34936</v>
-      </c>
-      <c r="D27" s="30">
-        <v>26763</v>
+      <c r="A27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="1">
+        <v>16917</v>
+      </c>
+      <c r="C27" s="1">
+        <v>12082</v>
+      </c>
+      <c r="D27" s="29">
+        <v>9988</v>
       </c>
       <c r="AE27" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF27" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AG27" t="s">
         <v>184</v>
       </c>
       <c r="AH27" s="20" t="s">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="AI27" s="20" t="s">
         <v>190</v>
@@ -4852,19 +5004,19 @@
         <v>186</v>
       </c>
       <c r="AM27" t="s">
-        <v>217</v>
-      </c>
-      <c r="AN27" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN27" s="18" t="s">
         <v>186</v>
       </c>
       <c r="AR27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AS27" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AT27" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="AU27" t="s">
         <v>227</v>
@@ -4891,28 +5043,28 @@
         <v>234</v>
       </c>
       <c r="BC27" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="BD27" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="BE27" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="BF27" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="BG27" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="BH27" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="BI27" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="BJ27" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="BQ27" s="16"/>
       <c r="BT27" s="26"/>
@@ -4920,19 +5072,29 @@
       <c r="CF27" s="11"/>
     </row>
     <row r="28" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
-      <c r="D28" s="27"/>
+      <c r="A28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="6">
+        <v>44537</v>
+      </c>
+      <c r="C28" s="6">
+        <v>34936</v>
+      </c>
+      <c r="D28" s="30">
+        <v>26763</v>
+      </c>
       <c r="AE28" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF28" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AG28" t="s">
         <v>184</v>
       </c>
       <c r="AH28" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AI28" s="20" t="s">
         <v>190</v>
@@ -4944,19 +5106,19 @@
         <v>186</v>
       </c>
       <c r="AM28" t="s">
-        <v>218</v>
-      </c>
-      <c r="AN28" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="AN28" t="s">
         <v>186</v>
       </c>
       <c r="AR28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AS28" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AT28" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="AU28" t="s">
         <v>227</v>
@@ -4983,65 +5145,72 @@
         <v>234</v>
       </c>
       <c r="BC28" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="BD28" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="BE28" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="BF28" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="BG28" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="BH28" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="BI28" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="BJ28" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="BQ28" s="16"/>
       <c r="BT28" s="26"/>
       <c r="BU28" s="19"/>
       <c r="CF28" s="11"/>
     </row>
-    <row r="29" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A29" s="11"/>
+      <c r="D29" s="27"/>
       <c r="AE29" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF29" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AG29" t="s">
         <v>184</v>
       </c>
       <c r="AH29" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AI29" s="20" t="s">
         <v>190</v>
       </c>
       <c r="AJ29" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
+      </c>
+      <c r="AK29" s="20" t="s">
+        <v>186</v>
       </c>
       <c r="AM29" t="s">
-        <v>219</v>
-      </c>
-      <c r="AN29" s="18"/>
+        <v>218</v>
+      </c>
+      <c r="AN29" s="18" t="s">
+        <v>186</v>
+      </c>
       <c r="AR29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AS29" s="23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AT29" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="AU29" t="s">
         <v>227</v>
@@ -5068,34 +5237,46 @@
         <v>234</v>
       </c>
       <c r="BC29" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="BD29" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="BE29" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="BF29" t="s">
-        <v>452</v>
+        <v>443</v>
+      </c>
+      <c r="BG29" t="s">
+        <v>444</v>
+      </c>
+      <c r="BH29" t="s">
+        <v>445</v>
+      </c>
+      <c r="BI29" t="s">
+        <v>446</v>
+      </c>
+      <c r="BJ29" t="s">
+        <v>447</v>
       </c>
       <c r="BQ29" s="16"/>
       <c r="BT29" s="26"/>
       <c r="BU29" s="19"/>
       <c r="CF29" s="11"/>
     </row>
-    <row r="30" spans="1:84" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:84" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AE30" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF30" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AG30" t="s">
         <v>184</v>
       </c>
       <c r="AH30" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AI30" s="20" t="s">
         <v>190</v>
@@ -5104,16 +5285,17 @@
         <v>188</v>
       </c>
       <c r="AM30" t="s">
-        <v>220</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="AN30" s="18"/>
       <c r="AR30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AS30" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AT30" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="AU30" t="s">
         <v>227</v>
@@ -5140,16 +5322,16 @@
         <v>234</v>
       </c>
       <c r="BC30" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="BD30" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="BE30" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="BF30" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="BQ30" s="16"/>
       <c r="BT30" s="26"/>
@@ -5157,36 +5339,17 @@
       <c r="CF30" s="11"/>
     </row>
     <row r="31" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="AE31" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF31" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AG31" t="s">
         <v>184</v>
       </c>
       <c r="AH31" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AI31" s="20" t="s">
         <v>190</v>
@@ -5194,18 +5357,17 @@
       <c r="AJ31" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="AM31" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="AN31" s="18"/>
+      <c r="AM31" t="s">
+        <v>220</v>
+      </c>
       <c r="AR31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AS31" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AT31" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="AU31" t="s">
         <v>227</v>
@@ -5232,25 +5394,16 @@
         <v>234</v>
       </c>
       <c r="BC31" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="BD31" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="BE31" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="BF31" t="s">
-        <v>465</v>
-      </c>
-      <c r="BG31" t="s">
-        <v>466</v>
-      </c>
-      <c r="BH31" t="s">
-        <v>467</v>
-      </c>
-      <c r="BI31" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="BQ31" s="16"/>
       <c r="BT31" s="26"/>
@@ -5258,62 +5411,59 @@
       <c r="CF31" s="11"/>
     </row>
     <row r="32" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>55</v>
+      <c r="A32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J32" s="7"/>
+      <c r="K32" s="46" t="s">
+        <v>550</v>
       </c>
       <c r="AE32" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF32" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG32" t="s">
         <v>184</v>
       </c>
       <c r="AH32" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AI32" s="20" t="s">
         <v>190</v>
       </c>
       <c r="AJ32" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="AK32" s="20" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AM32" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>186</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="AN32" s="18"/>
       <c r="AR32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AS32" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AT32" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AU32" t="s">
         <v>227</v>
@@ -5340,16 +5490,25 @@
         <v>234</v>
       </c>
       <c r="BC32" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="BD32" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="BE32" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="BF32" t="s">
-        <v>472</v>
+        <v>465</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>466</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>467</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>468</v>
       </c>
       <c r="BQ32" s="16"/>
       <c r="BT32" s="26"/>
@@ -5358,61 +5517,67 @@
     </row>
     <row r="33" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="28">
-        <v>0.64</v>
+        <v>8</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>65</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="J33" s="47" t="s">
+        <v>551</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>564</v>
       </c>
       <c r="AE33" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF33" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AG33" t="s">
         <v>184</v>
       </c>
       <c r="AH33" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AI33" s="20" t="s">
         <v>190</v>
       </c>
       <c r="AJ33" s="20" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AK33" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="AM33" t="s">
-        <v>223</v>
+      <c r="AM33" s="18" t="s">
+        <v>222</v>
       </c>
       <c r="AN33" t="s">
         <v>186</v>
       </c>
       <c r="AR33" t="s">
-        <v>114</v>
-      </c>
-      <c r="AS33" t="s">
-        <v>491</v>
+        <v>113</v>
+      </c>
+      <c r="AS33" s="23" t="s">
+        <v>148</v>
       </c>
       <c r="AT33" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AU33" t="s">
         <v>227</v>
@@ -5439,83 +5604,85 @@
         <v>234</v>
       </c>
       <c r="BC33" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="BD33" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="BE33" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="BF33" t="s">
-        <v>476</v>
-      </c>
-      <c r="BG33" t="s">
-        <v>477</v>
-      </c>
-      <c r="BH33" t="s">
-        <v>478</v>
-      </c>
-      <c r="BI33" t="s">
-        <v>479</v>
-      </c>
-      <c r="BJ33" t="s">
-        <v>480</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="BQ33" s="16"/>
       <c r="BT33" s="26"/>
       <c r="BU33" s="19"/>
-      <c r="BZ33" s="18"/>
-      <c r="CA33" s="18"/>
       <c r="CF33" s="11"/>
     </row>
     <row r="34" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>66</v>
+      <c r="A34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="28">
+        <v>0.64</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J34" s="47" t="s">
+        <v>553</v>
+      </c>
+      <c r="K34" s="48" t="s">
+        <v>565</v>
       </c>
       <c r="AE34" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF34" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AG34" t="s">
         <v>184</v>
       </c>
       <c r="AH34" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AI34" s="20" t="s">
         <v>190</v>
       </c>
       <c r="AJ34" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AK34" s="20" t="s">
         <v>186</v>
       </c>
       <c r="AM34" t="s">
-        <v>224</v>
-      </c>
-      <c r="AN34" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="AN34" t="s">
         <v>186</v>
       </c>
       <c r="AR34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AS34" t="s">
-        <v>150</v>
+        <v>491</v>
       </c>
       <c r="AT34" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AU34" t="s">
         <v>227</v>
@@ -5542,43 +5709,65 @@
         <v>234</v>
       </c>
       <c r="BC34" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="BD34" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="BE34" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="BF34" t="s">
-        <v>484</v>
-      </c>
-      <c r="BQ34" s="16"/>
-      <c r="BR34" s="16"/>
+        <v>476</v>
+      </c>
+      <c r="BG34" t="s">
+        <v>477</v>
+      </c>
+      <c r="BH34" t="s">
+        <v>478</v>
+      </c>
+      <c r="BI34" t="s">
+        <v>479</v>
+      </c>
+      <c r="BJ34" t="s">
+        <v>480</v>
+      </c>
       <c r="BT34" s="26"/>
       <c r="BU34" s="19"/>
+      <c r="BZ34" s="18"/>
+      <c r="CA34" s="18"/>
       <c r="CF34" s="11"/>
     </row>
     <row r="35" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="29" t="s">
-        <v>79</v>
+      <c r="A35" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="J35" s="47" t="s">
+        <v>555</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>556</v>
       </c>
       <c r="AE35" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AF35" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AG35" t="s">
         <v>184</v>
       </c>
       <c r="AH35" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AI35" s="20" t="s">
         <v>190</v>
@@ -5587,13 +5776,58 @@
         <v>187</v>
       </c>
       <c r="AK35" s="20" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AM35" t="s">
-        <v>225</v>
-      </c>
-      <c r="AN35" t="s">
-        <v>189</v>
+        <v>224</v>
+      </c>
+      <c r="AN35" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>461</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>228</v>
+      </c>
+      <c r="AW35" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX35" t="s">
+        <v>230</v>
+      </c>
+      <c r="AY35" t="s">
+        <v>231</v>
+      </c>
+      <c r="AZ35" t="s">
+        <v>232</v>
+      </c>
+      <c r="BA35" t="s">
+        <v>233</v>
+      </c>
+      <c r="BB35" t="s">
+        <v>234</v>
+      </c>
+      <c r="BC35" t="s">
+        <v>481</v>
+      </c>
+      <c r="BD35" t="s">
+        <v>482</v>
+      </c>
+      <c r="BE35" t="s">
+        <v>483</v>
+      </c>
+      <c r="BF35" t="s">
+        <v>484</v>
       </c>
       <c r="BQ35" s="16"/>
       <c r="BR35" s="16"/>
@@ -5603,15 +5837,46 @@
     </row>
     <row r="36" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
       <c r="D36" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE36" s="16"/>
-      <c r="AG36" s="19"/>
+        <v>79</v>
+      </c>
+      <c r="J36" s="47" t="s">
+        <v>557</v>
+      </c>
+      <c r="K36" s="48" t="s">
+        <v>566</v>
+      </c>
+      <c r="AE36" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF36" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH36" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI36" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ36" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK36" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>225</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>189</v>
+      </c>
       <c r="BQ36" s="16"/>
       <c r="BR36" s="16"/>
       <c r="BT36" s="26"/>
@@ -5619,1137 +5884,2401 @@
       <c r="CF36" s="11"/>
     </row>
     <row r="37" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A37" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="30" t="s">
-        <v>80</v>
-      </c>
+      <c r="A37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="J37" s="47" t="s">
+        <v>559</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="AE37" s="16"/>
       <c r="AG37" s="19"/>
-      <c r="AM37" s="18"/>
-      <c r="AN37" s="18"/>
       <c r="BQ37" s="16"/>
+      <c r="BR37" s="16"/>
+      <c r="BT37" s="26"/>
       <c r="BU37" s="19"/>
       <c r="CF37" s="11"/>
     </row>
     <row r="38" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="1">
-        <v>2014144</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1558833</v>
-      </c>
-      <c r="D38" s="29">
-        <v>275449</v>
-      </c>
-      <c r="AE38" s="16"/>
+      <c r="A38" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="30" t="s">
+        <v>80</v>
+      </c>
       <c r="AG38" s="19"/>
+      <c r="AM38" s="18"/>
+      <c r="AN38" s="18"/>
       <c r="BQ38" s="16"/>
-      <c r="BR38" s="16"/>
-      <c r="BT38" s="26"/>
       <c r="BU38" s="19"/>
       <c r="CF38" s="11"/>
     </row>
     <row r="39" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B39" s="1">
-        <v>204937</v>
+        <v>2014144</v>
       </c>
       <c r="C39" s="1">
-        <v>233426</v>
+        <v>1558833</v>
       </c>
       <c r="D39" s="29">
-        <v>176209</v>
+        <v>275449</v>
       </c>
       <c r="AE39" s="16"/>
       <c r="AG39" s="19"/>
       <c r="BQ39" s="16"/>
+      <c r="BR39" s="16"/>
       <c r="BT39" s="26"/>
-      <c r="BU39" s="17"/>
-      <c r="BZ39" s="18"/>
-      <c r="CA39" s="18"/>
+      <c r="BU39" s="19"/>
       <c r="CF39" s="11"/>
     </row>
     <row r="40" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B40" s="1">
-        <v>45979</v>
+        <v>204937</v>
       </c>
       <c r="C40" s="1">
-        <v>54310</v>
+        <v>233426</v>
       </c>
       <c r="D40" s="29">
-        <v>52907</v>
+        <v>176209</v>
       </c>
       <c r="AE40" s="16"/>
       <c r="AG40" s="19"/>
       <c r="BQ40" s="16"/>
-      <c r="BR40" s="16"/>
       <c r="BT40" s="26"/>
-      <c r="BU40" s="19"/>
+      <c r="BU40" s="17"/>
       <c r="BZ40" s="18"/>
+      <c r="CA40" s="18"/>
       <c r="CF40" s="11"/>
     </row>
     <row r="41" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B41" s="1">
-        <v>14797</v>
+        <v>45979</v>
       </c>
       <c r="C41" s="1">
-        <v>21762</v>
+        <v>54310</v>
       </c>
       <c r="D41" s="29">
-        <v>21646</v>
+        <v>52907</v>
       </c>
       <c r="AE41" s="16"/>
       <c r="AG41" s="19"/>
-      <c r="AM41" s="18"/>
-      <c r="AN41" s="18"/>
       <c r="BQ41" s="16"/>
+      <c r="BR41" s="16"/>
+      <c r="BT41" s="26"/>
       <c r="BU41" s="19"/>
       <c r="BZ41" s="18"/>
       <c r="CF41" s="11"/>
     </row>
     <row r="42" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B42" s="1">
-        <v>1247</v>
+        <v>14797</v>
       </c>
       <c r="C42" s="1">
-        <v>2797</v>
+        <v>21762</v>
       </c>
       <c r="D42" s="29">
-        <v>2790</v>
+        <v>21646</v>
       </c>
       <c r="AE42" s="16"/>
-      <c r="AG42" s="17"/>
+      <c r="AG42" s="19"/>
       <c r="AM42" s="18"/>
       <c r="AN42" s="18"/>
       <c r="BQ42" s="16"/>
-      <c r="BT42" s="26"/>
       <c r="BU42" s="19"/>
-      <c r="CA42" s="18"/>
+      <c r="BZ42" s="18"/>
       <c r="CF42" s="11"/>
     </row>
     <row r="43" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1247</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2797</v>
+      </c>
+      <c r="D43" s="29">
+        <v>2790</v>
+      </c>
+      <c r="AE43" s="16"/>
+      <c r="AG43" s="17"/>
+      <c r="AM43" s="18"/>
+      <c r="AN43" s="18"/>
+      <c r="BQ43" s="16"/>
+      <c r="BT43" s="26"/>
+      <c r="BU43" s="19"/>
+      <c r="CA43" s="18"/>
+      <c r="CF43" s="11"/>
+    </row>
+    <row r="44" spans="1:84" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B44" s="1">
         <v>59</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C44" s="1">
         <v>227</v>
       </c>
-      <c r="D43" s="29">
+      <c r="D44" s="29">
         <v>228</v>
-      </c>
-    </row>
-    <row r="44" spans="1:84" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="1">
-        <v>1415454228</v>
-      </c>
-      <c r="C44" s="1">
-        <v>1428218784</v>
-      </c>
-      <c r="D44" s="29">
-        <v>935639707</v>
       </c>
     </row>
     <row r="45" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B45" s="1">
-        <v>795320453</v>
+        <v>1415454228</v>
       </c>
       <c r="C45" s="1">
-        <v>980573591</v>
+        <v>1428218784</v>
       </c>
       <c r="D45" s="29">
-        <v>878552059</v>
+        <v>935639707</v>
       </c>
     </row>
     <row r="46" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B46" s="1">
-        <v>450793990</v>
+        <v>795320453</v>
       </c>
       <c r="C46" s="1">
-        <v>605236565</v>
+        <v>980573591</v>
       </c>
       <c r="D46" s="29">
-        <v>595334794</v>
+        <v>878552059</v>
       </c>
     </row>
     <row r="47" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B47" s="1">
-        <v>233974571</v>
+        <v>450793990</v>
       </c>
       <c r="C47" s="1">
-        <v>376840484</v>
+        <v>605236565</v>
       </c>
       <c r="D47" s="29">
-        <v>375307919</v>
+        <v>595334794</v>
       </c>
     </row>
     <row r="48" spans="1:84" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="1">
+        <v>233974571</v>
+      </c>
+      <c r="C48" s="1">
+        <v>376840484</v>
+      </c>
+      <c r="D48" s="29">
+        <v>375307919</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B49" s="1">
         <v>41087397</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C49" s="1">
         <v>97111126</v>
       </c>
-      <c r="D48" s="29">
+      <c r="D49" s="29">
         <v>96911185</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B50" s="1">
         <v>3486014</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C50" s="1">
         <v>13820739</v>
       </c>
-      <c r="D49" s="29">
+      <c r="D50" s="29">
         <v>13868049</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B51" s="1">
         <v>425314</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C51" s="1">
         <v>408201</v>
       </c>
-      <c r="D50" s="29">
+      <c r="D51" s="29">
         <v>233577</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B52" s="1">
         <v>120413</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C52" s="1">
         <v>133345</v>
       </c>
-      <c r="D51" s="29">
+      <c r="D52" s="29">
         <v>133345</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B53" s="1">
         <v>943680961</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C53" s="1">
         <v>1104610882</v>
       </c>
-      <c r="D52" s="29">
+      <c r="D53" s="29">
         <v>921230050</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D53" s="29" t="s">
+      <c r="D54" s="29" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B55" s="1">
         <v>4656</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C55" s="1">
         <v>5961</v>
       </c>
-      <c r="D54" s="29">
+      <c r="D55" s="29">
         <v>7798</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B56" s="1">
         <v>1649</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C56" s="1">
         <v>2047</v>
       </c>
-      <c r="D55" s="29">
+      <c r="D56" s="29">
         <v>3380</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B57" s="1">
         <v>50342</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C57" s="1">
         <v>44608</v>
       </c>
-      <c r="D56" s="29">
+      <c r="D57" s="29">
         <v>31320</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="5" t="s">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B58" s="6">
         <v>136034</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C58" s="6">
         <v>125047</v>
       </c>
-      <c r="D57" s="30">
+      <c r="D58" s="30">
         <v>76151</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="14" t="s">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="14" t="s">
         <v>506</v>
       </c>
-      <c r="B60" s="36" t="s">
+      <c r="B61" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C60" s="36" t="s">
+      <c r="C61" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D60" s="37" t="s">
+      <c r="D61" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F60" s="7"/>
-      <c r="G60" s="9" t="s">
+      <c r="F61" s="7"/>
+      <c r="G61" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H60" s="9" t="s">
+      <c r="H61" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+      <c r="J61" s="7"/>
+      <c r="K61" s="46" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C62" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D61" s="28" t="s">
+      <c r="D62" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="F61" s="10" t="s">
+      <c r="F62" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="G62" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H61" s="8" t="s">
+      <c r="H62" s="8" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
+      <c r="J62" s="47" t="s">
+        <v>551</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D62" s="29" t="s">
+      <c r="D63" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F62" s="10" t="s">
+      <c r="F63" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="G63" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H62" s="8" t="s">
+      <c r="H63" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="12" t="s">
+      <c r="J63" s="47" t="s">
+        <v>553</v>
+      </c>
+      <c r="K63" s="48" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B64" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C64" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D63" s="30" t="s">
+      <c r="D64" s="30" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
+      <c r="J64" s="47" t="s">
+        <v>555</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
       <c r="D65" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="J65" s="47" t="s">
+        <v>557</v>
+      </c>
+      <c r="K65" s="48" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="29" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="12" t="s">
+      <c r="J66" s="47" t="s">
+        <v>559</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="30" t="s">
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="30" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B68" s="1">
         <v>737400</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C68" s="1">
         <v>579602</v>
       </c>
-      <c r="D67" s="29">
+      <c r="D68" s="29">
         <v>117106</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B69" s="1">
         <v>56502</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C69" s="1">
         <v>63444</v>
       </c>
-      <c r="D68" s="29">
+      <c r="D69" s="29">
         <v>57077</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B70" s="1">
         <v>14223</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C70" s="1">
         <v>16121</v>
       </c>
-      <c r="D69" s="29">
+      <c r="D70" s="29">
         <v>15975</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B71" s="1">
         <v>6487</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C71" s="1">
         <v>7259</v>
       </c>
-      <c r="D70" s="29">
+      <c r="D71" s="29">
         <v>7246</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B72" s="1">
         <v>1851</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C72" s="1">
         <v>2364</v>
       </c>
-      <c r="D71" s="29">
+      <c r="D72" s="29">
         <v>2360</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B73" s="1">
         <v>467</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C73" s="1">
         <v>807</v>
       </c>
-      <c r="D72" s="29">
+      <c r="D73" s="29">
         <v>808</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B74" s="1">
         <v>517228205</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C74" s="1">
         <v>521225200</v>
       </c>
-      <c r="D73" s="29">
+      <c r="D74" s="29">
         <v>377721297</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B75" s="1">
         <v>298144341</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C75" s="1">
         <v>360819018</v>
       </c>
-      <c r="D74" s="29">
+      <c r="D75" s="29">
         <v>349639817</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B76" s="1">
         <v>206476335</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C76" s="1">
         <v>257007562</v>
       </c>
-      <c r="D75" s="29">
+      <c r="D76" s="29">
         <v>255921811</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B77" s="1">
         <v>152966755</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C77" s="1">
         <v>195456225</v>
       </c>
-      <c r="D76" s="29">
+      <c r="D77" s="29">
         <v>195267831</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B78" s="1">
         <v>82101915</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C78" s="1">
         <v>121153048</v>
       </c>
-      <c r="D77" s="29">
+      <c r="D78" s="29">
         <v>121080575</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B79" s="1">
         <v>34946525</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C79" s="1">
         <v>67344512</v>
       </c>
-      <c r="D78" s="29">
+      <c r="D79" s="29">
         <v>67413090</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B80" s="1">
         <v>111318</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C80" s="1">
         <v>101610</v>
       </c>
-      <c r="D79" s="29">
+      <c r="D80" s="29">
         <v>77394</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B81" s="1">
         <v>200311</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C81" s="1">
         <v>341906</v>
       </c>
-      <c r="D80" s="29">
+      <c r="D81" s="29">
         <v>342612</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B82" s="1">
         <v>334760411</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C82" s="1">
         <v>387259079</v>
       </c>
-      <c r="D81" s="29">
+      <c r="D82" s="29">
         <v>364387616</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D82" s="29" t="s">
+      <c r="D83" s="29" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B84" s="1">
         <v>8321</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C84" s="1">
         <v>10243</v>
       </c>
-      <c r="D83" s="31">
+      <c r="D84" s="31">
         <v>11703</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="4" t="s">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B85" s="1">
         <v>2573</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C85" s="1">
         <v>3293</v>
       </c>
-      <c r="D84" s="31">
+      <c r="D85" s="31">
         <v>4018</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B86" s="1">
         <v>8071</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C86" s="1">
         <v>7079</v>
       </c>
-      <c r="D85" s="31">
+      <c r="D86" s="31">
         <v>6035</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="5" t="s">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B86" s="6">
+      <c r="B87" s="6">
         <v>26700</v>
       </c>
-      <c r="C86" s="6">
+      <c r="C87" s="6">
         <v>24401</v>
       </c>
-      <c r="D86" s="32">
+      <c r="D87" s="32">
         <v>19848</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="14" t="s">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B89" s="36" t="s">
+      <c r="B90" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C89" s="36" t="s">
+      <c r="C90" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D89" s="37" t="s">
+      <c r="D90" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F89" s="7"/>
-      <c r="G89" s="9" t="s">
+      <c r="F90" s="7"/>
+      <c r="G90" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
+      <c r="J90" s="7"/>
+      <c r="K90" s="46" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="29" t="s">
+      <c r="D91" s="29" t="s">
         <v>499</v>
       </c>
-      <c r="F90" s="10" t="s">
+      <c r="F91" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G90" s="7" t="s">
+      <c r="G91" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
+      <c r="J91" s="47" t="s">
+        <v>551</v>
+      </c>
+      <c r="K91" s="7" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="D91" s="29" t="s">
+      <c r="D92" s="29" t="s">
         <v>500</v>
       </c>
-      <c r="F91" s="10" t="s">
+      <c r="F92" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G91" s="7" t="s">
+      <c r="G92" s="7" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="12" t="s">
+      <c r="J92" s="47" t="s">
+        <v>553</v>
+      </c>
+      <c r="K92" s="48" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B93" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C93" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="D92" s="30" t="s">
+      <c r="D93" s="30" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
+      <c r="J93" s="47" t="s">
+        <v>555</v>
+      </c>
+      <c r="K93" s="7" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B93" s="21"/>
-      <c r="C93" s="21"/>
-      <c r="D93" s="29" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
       <c r="D94" s="29" t="s">
+        <v>502</v>
+      </c>
+      <c r="J94" s="47" t="s">
+        <v>557</v>
+      </c>
+      <c r="K94" s="48" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B95" s="21"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="29" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="12" t="s">
+      <c r="J95" s="47" t="s">
+        <v>559</v>
+      </c>
+      <c r="K95" s="7" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B95" s="22"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="30" t="s">
+      <c r="B96" s="22"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="30" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B96">
-        <v>1467359</v>
-      </c>
-      <c r="C96">
-        <v>1046544</v>
-      </c>
-      <c r="D96" s="34">
-        <v>109226</v>
-      </c>
-      <c r="E96" s="11"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B97">
-        <v>135677</v>
+        <v>1467359</v>
       </c>
       <c r="C97">
-        <v>148514</v>
+        <v>1046544</v>
       </c>
       <c r="D97" s="34">
-        <v>82756</v>
+        <v>109226</v>
       </c>
       <c r="E97" s="11"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B98">
-        <v>25847</v>
+        <v>135677</v>
       </c>
       <c r="C98">
-        <v>36779</v>
+        <v>148514</v>
       </c>
       <c r="D98" s="34">
-        <v>23240</v>
+        <v>82756</v>
       </c>
       <c r="E98" s="11"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B99">
-        <v>6929</v>
+        <v>25847</v>
       </c>
       <c r="C99">
-        <v>13476</v>
+        <v>36779</v>
       </c>
       <c r="D99" s="34">
-        <v>8840</v>
+        <v>23240</v>
       </c>
       <c r="E99" s="11"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B100">
-        <v>777</v>
+        <v>6929</v>
       </c>
       <c r="C100">
-        <v>1843</v>
+        <v>13476</v>
       </c>
       <c r="D100" s="34">
-        <v>1188</v>
+        <v>8840</v>
       </c>
       <c r="E100" s="11"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B101">
+        <v>777</v>
+      </c>
+      <c r="C101">
+        <v>1843</v>
+      </c>
+      <c r="D101" s="34">
+        <v>1188</v>
+      </c>
+      <c r="E101" s="11"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B101">
+      <c r="B102">
         <v>83</v>
       </c>
-      <c r="C101">
+      <c r="C102">
         <v>272</v>
       </c>
-      <c r="D101" s="34">
+      <c r="D102" s="34">
         <v>179</v>
-      </c>
-      <c r="E101" s="11"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B102">
-        <v>921891678</v>
-      </c>
-      <c r="C102">
-        <v>932059600</v>
-      </c>
-      <c r="D102" s="34">
-        <v>412994018</v>
       </c>
       <c r="E102" s="11"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B103">
-        <v>484678280</v>
+        <v>921891678</v>
       </c>
       <c r="C103">
-        <v>647797137</v>
+        <v>932059600</v>
       </c>
       <c r="D103" s="34">
-        <v>392786914</v>
+        <v>412994018</v>
       </c>
       <c r="E103" s="11"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B104">
-        <v>243626695</v>
+        <v>484678280</v>
       </c>
       <c r="C104">
-        <v>401089933</v>
+        <v>647797137</v>
       </c>
       <c r="D104" s="34">
-        <v>256951610</v>
+        <v>392786914</v>
       </c>
       <c r="E104" s="11"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B105">
-        <v>114361365</v>
+        <v>243626695</v>
       </c>
       <c r="C105">
-        <v>238653986</v>
+        <v>401089933</v>
       </c>
       <c r="D105" s="34">
-        <v>156057182</v>
+        <v>256951610</v>
       </c>
       <c r="E105" s="11"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B106">
-        <v>27775364</v>
+        <v>114361365</v>
       </c>
       <c r="C106">
-        <v>69426837</v>
+        <v>238653986</v>
       </c>
       <c r="D106" s="34">
-        <v>44841291</v>
+        <v>156057182</v>
       </c>
       <c r="E106" s="11"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B107">
-        <v>5225412</v>
+        <v>27775364</v>
       </c>
       <c r="C107">
-        <v>17808159</v>
+        <v>69426837</v>
       </c>
       <c r="D107" s="34">
-        <v>11881903</v>
+        <v>44841291</v>
       </c>
       <c r="E107" s="11"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B108">
-        <v>266952</v>
+        <v>5225412</v>
       </c>
       <c r="C108">
-        <v>239371</v>
+        <v>17808159</v>
       </c>
       <c r="D108" s="34">
-        <v>109220</v>
+        <v>11881903</v>
       </c>
       <c r="E108" s="11"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B109">
-        <v>100738</v>
+        <v>266952</v>
       </c>
       <c r="C109">
-        <v>192900</v>
+        <v>239371</v>
       </c>
       <c r="D109" s="34">
-        <v>141259</v>
+        <v>109220</v>
       </c>
       <c r="E109" s="11"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B110">
-        <v>573258307</v>
+        <v>100738</v>
       </c>
       <c r="C110">
-        <v>711998151</v>
+        <v>192900</v>
       </c>
       <c r="D110" s="34">
-        <v>412991154</v>
+        <v>141259</v>
       </c>
       <c r="E110" s="11"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B111" t="s">
-        <v>495</v>
-      </c>
-      <c r="C111" t="s">
-        <v>35</v>
-      </c>
-      <c r="D111" s="34" t="s">
-        <v>498</v>
+        <v>30</v>
+      </c>
+      <c r="B111">
+        <v>573258307</v>
+      </c>
+      <c r="C111">
+        <v>711998151</v>
+      </c>
+      <c r="D111" s="34">
+        <v>412991154</v>
       </c>
       <c r="E111" s="11"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B112" t="s">
+        <v>495</v>
+      </c>
+      <c r="C112" t="s">
+        <v>35</v>
+      </c>
+      <c r="D112" s="34" t="s">
+        <v>498</v>
+      </c>
+      <c r="E112" s="11"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B112" s="11">
+      <c r="B113" s="11">
         <v>4002</v>
       </c>
-      <c r="C112">
+      <c r="C113">
         <v>6120</v>
       </c>
-      <c r="D112" s="34">
+      <c r="D113" s="34">
         <v>7181</v>
       </c>
-      <c r="E112" s="11"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" s="4" t="s">
+      <c r="E113" s="11"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B113" s="11">
+      <c r="B114" s="11">
         <v>1604</v>
       </c>
-      <c r="C113">
+      <c r="C114">
         <v>2438</v>
       </c>
-      <c r="D113" s="34">
+      <c r="D114" s="34">
         <v>3135</v>
       </c>
-      <c r="E113" s="11"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="4" t="s">
+      <c r="E114" s="11"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B114" s="11">
+      <c r="B115" s="11">
         <v>35478</v>
       </c>
-      <c r="C114">
+      <c r="C115">
         <v>28613</v>
       </c>
-      <c r="D114" s="34">
+      <c r="D115" s="34">
         <v>14813</v>
       </c>
-      <c r="E114" s="11"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="5" t="s">
+      <c r="E115" s="11"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B115" s="25">
+      <c r="B116" s="25">
         <v>92228</v>
       </c>
-      <c r="C115" s="33">
+      <c r="C116" s="33">
         <v>74925</v>
       </c>
-      <c r="D115" s="35">
+      <c r="D116" s="35">
         <v>36553</v>
       </c>
-      <c r="E115" s="11"/>
+      <c r="E116" s="11"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="49" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="B120" s="38" t="s">
+        <v>508</v>
+      </c>
+      <c r="F120" s="7"/>
+      <c r="G120" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B121" s="39" t="s">
+        <v>509</v>
+      </c>
+      <c r="F121" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B122" s="40" t="s">
+        <v>511</v>
+      </c>
+      <c r="F122" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G122" s="41" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B123" s="42" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B124" s="39" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B125" s="39" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B126" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B127" s="39">
+        <v>26592</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B128" s="39">
+        <v>22235</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B129" s="39">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B130" s="39">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B131" s="39">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B132" s="39">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133" s="39">
+        <v>559218388</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B134" s="39">
+        <v>556241573</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B135" s="39">
+        <v>511411817</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B136" s="39">
+        <v>493028205</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B137" s="39">
+        <v>487488488</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B138" s="39">
+        <v>484998299</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B139" s="39">
+        <v>25728</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B140" s="39">
+        <v>8360586</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B141" s="39">
+        <v>558905956</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142" s="39" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B143" s="39">
+        <v>1690115</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B144" s="39">
+        <v>796386</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B145" s="39">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B146" s="42">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="B149" s="38" t="s">
+        <v>508</v>
+      </c>
+      <c r="F149" s="7"/>
+      <c r="G149" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B150" s="39" t="s">
+        <v>517</v>
+      </c>
+      <c r="F150" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G150" s="44" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B151" s="39" t="s">
+        <v>519</v>
+      </c>
+      <c r="F151" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G151" s="41" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B152" s="42" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B153" s="39" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B154" s="39" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B155" s="42" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B156" s="40">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B157" s="40">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B158" s="40">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B159" s="40">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B160" s="40">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B161" s="40">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B162" s="40">
+        <v>354804354</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B163" s="40">
+        <v>354799261</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B164" s="40">
+        <v>354696839</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B165" s="40">
+        <v>354552781</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B166" s="40">
+        <v>354103960</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B167" s="40">
+        <v>353214149</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B168" s="40">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B169" s="40">
+        <v>7252744</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B170" s="40">
+        <v>354803869</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B171" s="40" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B172" s="39">
+        <v>2668382</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B173" s="39">
+        <v>1224880</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B174" s="39">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B175" s="42">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="B179" s="38" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B180" s="45">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B181" s="39" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B182" s="42" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B183" s="39" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B184" s="45">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B185" s="42" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B186" s="40"/>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B187" s="40"/>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B188" s="40"/>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B189" s="40"/>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B190" s="40"/>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B191" s="40"/>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B192" s="40"/>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B193" s="40"/>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B194" s="40"/>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B195" s="40"/>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B196" s="40"/>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B197" s="40"/>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B198" s="40"/>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B199" s="40"/>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B200" s="40"/>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B201" s="40"/>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B202" s="39"/>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B203" s="39"/>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B204" s="39"/>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B205" s="42"/>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="B209" s="38" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B210" s="39" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B211" s="39" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B212" s="42" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B213" s="39" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B214" s="39" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B215" s="42" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B216" s="40"/>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B217" s="40"/>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B218" s="40"/>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B219" s="40"/>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B220" s="40"/>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B221" s="40"/>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B222" s="40"/>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B223" s="40"/>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B224" s="40"/>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B225" s="40"/>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B226" s="40"/>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B227" s="40"/>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B228" s="40"/>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B229" s="40"/>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B230" s="40"/>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B231" s="40"/>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B232" s="39"/>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B233" s="39"/>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B234" s="39"/>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B235" s="42"/>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="B239" s="38" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B240" s="39" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B241" s="39" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B242" s="42" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B243" s="39" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B244" s="39" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B245" s="42" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B246" s="40"/>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B247" s="40"/>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B248" s="40"/>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B249" s="40"/>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B250" s="40"/>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B251" s="40"/>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B252" s="40"/>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B253" s="40"/>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B254" s="40"/>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B255" s="40"/>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B256" s="40"/>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B257" s="40"/>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B258" s="40"/>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B259" s="40"/>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B260" s="40"/>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B261" s="40"/>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B262" s="39"/>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B263" s="39"/>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B264" s="39"/>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B265" s="42"/>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="B270" s="38" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B271" s="39" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B272" s="39" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B273" s="42" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B274" s="45">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B275" s="39" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B276" s="42" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B277" s="40"/>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B278" s="40"/>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B279" s="40"/>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B280" s="40"/>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B281" s="40"/>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B282" s="40"/>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B283" s="40"/>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B284" s="40"/>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B285" s="40"/>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B286" s="40"/>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B287" s="40"/>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B288" s="40"/>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B289" s="40"/>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B290" s="40"/>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B291" s="40"/>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B292" s="40"/>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B293" s="39"/>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B294" s="39"/>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B295" s="39"/>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B296" s="42"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="BQ2:CE118">
-    <sortCondition ref="BT1:BT118"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="BQ3:CE119">
+    <sortCondition ref="BT2:BT119"/>
   </sortState>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
